--- a/CO2.xlsx
+++ b/CO2.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanyaradu/sei/projects/project4-back-end/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92BCB9EF-BC73-6143-980E-010E2813402D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADDA60ED-42E6-F34C-9731-DBCC410D7DAC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="960" windowWidth="25040" windowHeight="13700" xr2:uid="{8ADFF2D1-C6B7-784B-85CF-3CF773BA8806}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="CO2 total emissions " sheetId="1" r:id="rId1"/>
+    <sheet name="link" sheetId="2" r:id="rId2"/>
+    <sheet name="CO2 per capita emissions" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="211">
   <si>
     <t>Aruba</t>
   </si>
@@ -658,6 +660,12 @@
   </si>
   <si>
     <t>Country</t>
+  </si>
+  <si>
+    <t>https://edgar.jrc.ec.europa.eu/overview.php?v=CO2andGHG1970-2016&amp;dst=CO2emi&amp;sort=asc1</t>
+  </si>
+  <si>
+    <t>United States of America</t>
   </si>
 </sst>
 </file>
@@ -1857,6 +1865,1126 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="https://edgar.jrc.ec.europa.eu/img/sort_ASC_on.gif">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" tooltip="Sort ascending"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8981C6F6-BF6E-7746-B487-54854153B431}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="406400"/>
+          <a:ext cx="203200" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="https://edgar.jrc.ec.europa.eu/img/sort_DESC.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7847B1E4-AF81-2243-B951-ECECC33DB4F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="215900" y="406400"/>
+          <a:ext cx="203200" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3" descr="https://edgar.jrc.ec.europa.eu/img/sort_ASC.gif">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4" tooltip="Sort ascending"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03668A2B-790F-5246-9B50-BC7457466EBE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="825500" y="406400"/>
+          <a:ext cx="203200" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4" descr="https://edgar.jrc.ec.europa.eu/img/sort_DESC.gif">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6" tooltip="Sort descending"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F05C5F5D-7B11-FB47-890D-131BF8486062}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1041400" y="406400"/>
+          <a:ext cx="203200" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5" descr="https://edgar.jrc.ec.europa.eu/img/sort_ASC.gif">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7" tooltip="Sort ascending"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90A68618-AC7C-8D49-AE02-F8A97FD633E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1651000" y="406400"/>
+          <a:ext cx="203200" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6" descr="https://edgar.jrc.ec.europa.eu/img/sort_DESC.gif">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8" tooltip="Sort descending"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B3E0300-5DFB-7745-9298-0CDA97FB48CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1866900" y="406400"/>
+          <a:ext cx="203200" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7" descr="https://edgar.jrc.ec.europa.eu/img/sort_ASC.gif">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9" tooltip="Sort ascending"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{817E3C7F-FF3F-3443-B506-CE6C9CB7ECD7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2476500" y="406400"/>
+          <a:ext cx="203200" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8" descr="https://edgar.jrc.ec.europa.eu/img/sort_DESC.gif">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10" tooltip="Sort descending"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{847CCDA1-B4F0-644B-8320-6C5DBDB5B226}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2692400" y="406400"/>
+          <a:ext cx="203200" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9" descr="https://edgar.jrc.ec.europa.eu/img/sort_ASC.gif">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11" tooltip="Sort ascending"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF4E576A-56EB-C547-912D-219D6A095B6B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3302000" y="406400"/>
+          <a:ext cx="203200" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10" descr="https://edgar.jrc.ec.europa.eu/img/sort_DESC.gif">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12" tooltip="Sort descending"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9260CEA1-A773-CC47-87DA-4447F151C057}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3517900" y="406400"/>
+          <a:ext cx="203200" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11" descr="https://edgar.jrc.ec.europa.eu/img/sort_ASC.gif">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13" tooltip="Sort ascending"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1F46BB4-3E5C-814A-AD8C-249FCE114E8F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4127500" y="406400"/>
+          <a:ext cx="203200" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12" descr="https://edgar.jrc.ec.europa.eu/img/sort_DESC.gif">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14" tooltip="Sort descending"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBA2A0AF-B380-8D4C-B47B-E9614B369378}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4343400" y="406400"/>
+          <a:ext cx="203200" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13" descr="https://edgar.jrc.ec.europa.eu/img/sort_ASC.gif">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15" tooltip="Sort ascending"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DD079AD-5EB7-894D-B5FD-0EA44E7533D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4953000" y="406400"/>
+          <a:ext cx="203200" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14" descr="https://edgar.jrc.ec.europa.eu/img/sort_DESC.gif">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId16" tooltip="Sort descending"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4397DF63-7174-0141-A5C3-685882F52933}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5168900" y="406400"/>
+          <a:ext cx="203200" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15" descr="https://edgar.jrc.ec.europa.eu/img/sort_ASC.gif">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId17" tooltip="Sort ascending"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76B2D35A-31FC-E24E-8A7C-FC5DD17BB13B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5778500" y="406400"/>
+          <a:ext cx="203200" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16" descr="https://edgar.jrc.ec.europa.eu/img/sort_DESC.gif">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId18" tooltip="Sort descending"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8F75485-2749-D141-9960-7263C23574F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5994400" y="406400"/>
+          <a:ext cx="203200" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17" descr="https://edgar.jrc.ec.europa.eu/img/sort_ASC.gif">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId19" tooltip="Sort ascending"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E74BAA36-27FC-3E44-94C5-D323EC08700B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6604000" y="406400"/>
+          <a:ext cx="203200" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 18" descr="https://edgar.jrc.ec.europa.eu/img/sort_DESC.gif">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId20" tooltip="Sort descending"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91302E70-2329-294E-AFE8-9D886C0FCF63}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6819900" y="406400"/>
+          <a:ext cx="203200" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2156,13 +3284,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7284176-2D1E-E742-9B8B-B2E4EC80464A}">
   <dimension ref="A1:I209"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" topLeftCell="A181" workbookViewId="0">
+      <selection activeCell="A198" sqref="A198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" customWidth="1"/>
+    <col min="1" max="1" width="41" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -7880,7 +9008,7 @@
     </row>
     <row r="198" spans="1:9">
       <c r="A198" s="1" t="s">
-        <v>196</v>
+        <v>210</v>
       </c>
       <c r="B198" s="2">
         <v>4955640.9800000004</v>
@@ -8440,4 +9568,6315 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId209"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7149CDA7-2097-2D4A-BD79-06C78A7403DF}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{BE5CE5D7-C820-6444-8DA4-9CFC12F0086E}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44886071-92C2-624B-9E54-4BBEB4E0B0AF}">
+  <dimension ref="A1:I209"/>
+  <sheetViews>
+    <sheetView topLeftCell="A185" workbookViewId="0">
+      <selection activeCell="A198" sqref="A198"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="24.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B1" s="3">
+        <v>1990</v>
+      </c>
+      <c r="C1" s="3">
+        <v>2000</v>
+      </c>
+      <c r="D1" s="3">
+        <v>2005</v>
+      </c>
+      <c r="E1" s="3">
+        <v>2010</v>
+      </c>
+      <c r="F1" s="3">
+        <v>2012</v>
+      </c>
+      <c r="G1" s="3">
+        <v>2014</v>
+      </c>
+      <c r="H1" s="3">
+        <v>2015</v>
+      </c>
+      <c r="I1" s="3">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1.36</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1.78</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1.51</v>
+      </c>
+      <c r="G2" s="2">
+        <v>1.64</v>
+      </c>
+      <c r="H2" s="2">
+        <v>1.68</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.17</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.22</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0.24</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0.27</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.27</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.92</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.76</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.99</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.91</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1.06</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.73</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1.08</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1.74</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1.82</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1.98</v>
+      </c>
+      <c r="H5" s="2">
+        <v>2.04</v>
+      </c>
+      <c r="I5" s="2">
+        <v>2.04</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1.99</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1.01</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1.34</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1.38</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1.44</v>
+      </c>
+      <c r="G6" s="2">
+        <v>1.65</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1.71</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1.78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2">
+        <v>18.14</v>
+      </c>
+      <c r="C7" s="2">
+        <v>43.12</v>
+      </c>
+      <c r="D7" s="2">
+        <v>47.23</v>
+      </c>
+      <c r="E7" s="2">
+        <v>33.380000000000003</v>
+      </c>
+      <c r="F7" s="2">
+        <v>42.29</v>
+      </c>
+      <c r="G7" s="2">
+        <v>43.11</v>
+      </c>
+      <c r="H7" s="2">
+        <v>44.7</v>
+      </c>
+      <c r="I7" s="2">
+        <v>45.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2">
+        <v>30.39</v>
+      </c>
+      <c r="C8" s="2">
+        <v>29.71</v>
+      </c>
+      <c r="D8" s="2">
+        <v>25.98</v>
+      </c>
+      <c r="E8" s="2">
+        <v>20.7</v>
+      </c>
+      <c r="F8" s="2">
+        <v>21.04</v>
+      </c>
+      <c r="G8" s="2">
+        <v>21.43</v>
+      </c>
+      <c r="H8" s="2">
+        <v>22.9</v>
+      </c>
+      <c r="I8" s="2">
+        <v>23.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2">
+        <v>3.25</v>
+      </c>
+      <c r="C9" s="2">
+        <v>3.87</v>
+      </c>
+      <c r="D9" s="2">
+        <v>4.04</v>
+      </c>
+      <c r="E9" s="2">
+        <v>4.54</v>
+      </c>
+      <c r="F9" s="2">
+        <v>4.51</v>
+      </c>
+      <c r="G9" s="2">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="H9" s="2">
+        <v>4.62</v>
+      </c>
+      <c r="I9" s="2">
+        <v>4.58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2">
+        <v>5.81</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1.49</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1.43</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1.64</v>
+      </c>
+      <c r="G10" s="2">
+        <v>1.52</v>
+      </c>
+      <c r="H10" s="2">
+        <v>1.53</v>
+      </c>
+      <c r="I10" s="2">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2">
+        <v>3.65</v>
+      </c>
+      <c r="C11" s="2">
+        <v>3.32</v>
+      </c>
+      <c r="D11" s="2">
+        <v>3.41</v>
+      </c>
+      <c r="E11" s="2">
+        <v>3.71</v>
+      </c>
+      <c r="F11" s="2">
+        <v>3.84</v>
+      </c>
+      <c r="G11" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="H11" s="2">
+        <v>4.33</v>
+      </c>
+      <c r="I11" s="2">
+        <v>4.34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2">
+        <v>16.25</v>
+      </c>
+      <c r="C12" s="2">
+        <v>18.670000000000002</v>
+      </c>
+      <c r="D12" s="2">
+        <v>20.32</v>
+      </c>
+      <c r="E12" s="2">
+        <v>18.96</v>
+      </c>
+      <c r="F12" s="2">
+        <v>18.32</v>
+      </c>
+      <c r="G12" s="2">
+        <v>17.239999999999998</v>
+      </c>
+      <c r="H12" s="2">
+        <v>17.61</v>
+      </c>
+      <c r="I12" s="2">
+        <v>17.22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2">
+        <v>7.93</v>
+      </c>
+      <c r="C13" s="2">
+        <v>8.2200000000000006</v>
+      </c>
+      <c r="D13" s="2">
+        <v>9.74</v>
+      </c>
+      <c r="E13" s="2">
+        <v>8.93</v>
+      </c>
+      <c r="F13" s="2">
+        <v>8.61</v>
+      </c>
+      <c r="G13" s="2">
+        <v>8.1199999999999992</v>
+      </c>
+      <c r="H13" s="2">
+        <v>8.3699999999999992</v>
+      </c>
+      <c r="I13" s="2">
+        <v>8.4700000000000006</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2">
+        <v>7.34</v>
+      </c>
+      <c r="C14" s="2">
+        <v>3.43</v>
+      </c>
+      <c r="D14" s="2">
+        <v>3.54</v>
+      </c>
+      <c r="E14" s="2">
+        <v>2.72</v>
+      </c>
+      <c r="F14" s="2">
+        <v>3.16</v>
+      </c>
+      <c r="G14" s="2">
+        <v>3.3</v>
+      </c>
+      <c r="H14" s="2">
+        <v>3.51</v>
+      </c>
+      <c r="I14" s="2">
+        <v>3.45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0.11</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0.11</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2">
+        <v>11.49</v>
+      </c>
+      <c r="C16" s="2">
+        <v>11.85</v>
+      </c>
+      <c r="D16" s="2">
+        <v>10.92</v>
+      </c>
+      <c r="E16" s="2">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="F16" s="2">
+        <v>8.44</v>
+      </c>
+      <c r="G16" s="2">
+        <v>7.98</v>
+      </c>
+      <c r="H16" s="2">
+        <v>8.26</v>
+      </c>
+      <c r="I16" s="2">
+        <v>8.31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.22</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0.61</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0.59</v>
+      </c>
+      <c r="I17" s="2">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0.11</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0.13</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0.13</v>
+      </c>
+      <c r="I18" s="2">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0.13</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0.27</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0.39</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0.39</v>
+      </c>
+      <c r="G19" s="2">
+        <v>0.41</v>
+      </c>
+      <c r="H19" s="2">
+        <v>0.44</v>
+      </c>
+      <c r="I19" s="2">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="2">
+        <v>9.27</v>
+      </c>
+      <c r="C20" s="2">
+        <v>5.88</v>
+      </c>
+      <c r="D20" s="2">
+        <v>6.75</v>
+      </c>
+      <c r="E20" s="2">
+        <v>6.57</v>
+      </c>
+      <c r="F20" s="2">
+        <v>7.25</v>
+      </c>
+      <c r="G20" s="2">
+        <v>7.05</v>
+      </c>
+      <c r="H20" s="2">
+        <v>7.54</v>
+      </c>
+      <c r="I20" s="2">
+        <v>7.14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="2">
+        <v>26.08</v>
+      </c>
+      <c r="C21" s="2">
+        <v>23.88</v>
+      </c>
+      <c r="D21" s="2">
+        <v>18.559999999999999</v>
+      </c>
+      <c r="E21" s="2">
+        <v>15.51</v>
+      </c>
+      <c r="F21" s="2">
+        <v>15.18</v>
+      </c>
+      <c r="G21" s="2">
+        <v>16.77</v>
+      </c>
+      <c r="H21" s="2">
+        <v>17.420000000000002</v>
+      </c>
+      <c r="I21" s="2">
+        <v>17.100000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="2">
+        <v>10.06</v>
+      </c>
+      <c r="C22" s="2">
+        <v>7.92</v>
+      </c>
+      <c r="D22" s="2">
+        <v>8.42</v>
+      </c>
+      <c r="E22" s="2">
+        <v>9.5299999999999994</v>
+      </c>
+      <c r="F22" s="2">
+        <v>10.039999999999999</v>
+      </c>
+      <c r="G22" s="2">
+        <v>10.92</v>
+      </c>
+      <c r="H22" s="2">
+        <v>11.21</v>
+      </c>
+      <c r="I22" s="2">
+        <v>11.26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="2">
+        <v>5.48</v>
+      </c>
+      <c r="C23" s="2">
+        <v>3.77</v>
+      </c>
+      <c r="D23" s="2">
+        <v>4.43</v>
+      </c>
+      <c r="E23" s="2">
+        <v>5.9</v>
+      </c>
+      <c r="F23" s="2">
+        <v>6.67</v>
+      </c>
+      <c r="G23" s="2">
+        <v>6.83</v>
+      </c>
+      <c r="H23" s="2">
+        <v>7.19</v>
+      </c>
+      <c r="I23" s="2">
+        <v>7.29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="2">
+        <v>10.6</v>
+      </c>
+      <c r="C24" s="2">
+        <v>5.82</v>
+      </c>
+      <c r="D24" s="2">
+        <v>6.6</v>
+      </c>
+      <c r="E24" s="2">
+        <v>7.44</v>
+      </c>
+      <c r="F24" s="2">
+        <v>7.06</v>
+      </c>
+      <c r="G24" s="2">
+        <v>7.05</v>
+      </c>
+      <c r="H24" s="2">
+        <v>6.29</v>
+      </c>
+      <c r="I24" s="2">
+        <v>6.61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="2">
+        <v>2.66</v>
+      </c>
+      <c r="C25" s="2">
+        <v>2.82</v>
+      </c>
+      <c r="D25" s="2">
+        <v>2.79</v>
+      </c>
+      <c r="E25" s="2">
+        <v>2.94</v>
+      </c>
+      <c r="F25" s="2">
+        <v>2.81</v>
+      </c>
+      <c r="G25" s="2">
+        <v>3</v>
+      </c>
+      <c r="H25" s="2">
+        <v>3.06</v>
+      </c>
+      <c r="I25" s="2">
+        <v>3.04</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="2">
+        <v>8.7899999999999991</v>
+      </c>
+      <c r="C26" s="2">
+        <v>6.75</v>
+      </c>
+      <c r="D26" s="2">
+        <v>7.2</v>
+      </c>
+      <c r="E26" s="2">
+        <v>7.75</v>
+      </c>
+      <c r="F26" s="2">
+        <v>8.58</v>
+      </c>
+      <c r="G26" s="2">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="H26" s="2">
+        <v>10.16</v>
+      </c>
+      <c r="I26" s="2">
+        <v>10.36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="2">
+        <v>0.93</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0.98</v>
+      </c>
+      <c r="D27" s="2">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="E27" s="2">
+        <v>1.53</v>
+      </c>
+      <c r="F27" s="2">
+        <v>1.66</v>
+      </c>
+      <c r="G27" s="2">
+        <v>1.76</v>
+      </c>
+      <c r="H27" s="2">
+        <v>1.78</v>
+      </c>
+      <c r="I27" s="2">
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="2">
+        <v>1.45</v>
+      </c>
+      <c r="C28" s="2">
+        <v>1.9</v>
+      </c>
+      <c r="D28" s="2">
+        <v>1.88</v>
+      </c>
+      <c r="E28" s="2">
+        <v>2.13</v>
+      </c>
+      <c r="F28" s="2">
+        <v>2.25</v>
+      </c>
+      <c r="G28" s="2">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="H28" s="2">
+        <v>2.39</v>
+      </c>
+      <c r="I28" s="2">
+        <v>2.23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="2">
+        <v>3.7</v>
+      </c>
+      <c r="C29" s="2">
+        <v>4.47</v>
+      </c>
+      <c r="D29" s="2">
+        <v>4.37</v>
+      </c>
+      <c r="E29" s="2">
+        <v>4.53</v>
+      </c>
+      <c r="F29" s="2">
+        <v>4.7</v>
+      </c>
+      <c r="G29" s="2">
+        <v>5.16</v>
+      </c>
+      <c r="H29" s="2">
+        <v>5.33</v>
+      </c>
+      <c r="I29" s="2">
+        <v>5.41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="2">
+        <v>12.87</v>
+      </c>
+      <c r="C30" s="2">
+        <v>14.52</v>
+      </c>
+      <c r="D30" s="2">
+        <v>14.08</v>
+      </c>
+      <c r="E30" s="2">
+        <v>18.739999999999998</v>
+      </c>
+      <c r="F30" s="2">
+        <v>17.850000000000001</v>
+      </c>
+      <c r="G30" s="2">
+        <v>16.79</v>
+      </c>
+      <c r="H30" s="2">
+        <v>17.73</v>
+      </c>
+      <c r="I30" s="2">
+        <v>18.14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="2">
+        <v>1.37</v>
+      </c>
+      <c r="C31" s="2">
+        <v>1.07</v>
+      </c>
+      <c r="D31" s="2">
+        <v>0.93</v>
+      </c>
+      <c r="E31" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="F31" s="2">
+        <v>1.81</v>
+      </c>
+      <c r="G31" s="2">
+        <v>1.99</v>
+      </c>
+      <c r="H31" s="2">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="I31" s="2">
+        <v>2.11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="2">
+        <v>2.16</v>
+      </c>
+      <c r="C32" s="2">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="D32" s="2">
+        <v>2.48</v>
+      </c>
+      <c r="E32" s="2">
+        <v>2.58</v>
+      </c>
+      <c r="F32" s="2">
+        <v>2.41</v>
+      </c>
+      <c r="G32" s="2">
+        <v>3.2</v>
+      </c>
+      <c r="H32" s="2">
+        <v>3.03</v>
+      </c>
+      <c r="I32" s="2">
+        <v>2.86</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="C33" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="D33" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="E33" s="2">
+        <v>0.11</v>
+      </c>
+      <c r="F33" s="2">
+        <v>0.11</v>
+      </c>
+      <c r="G33" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="H33" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="I33" s="2">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" s="2">
+        <v>20.02</v>
+      </c>
+      <c r="C34" s="2">
+        <v>23.72</v>
+      </c>
+      <c r="D34" s="2">
+        <v>22.36</v>
+      </c>
+      <c r="E34" s="2">
+        <v>20.11</v>
+      </c>
+      <c r="F34" s="2">
+        <v>19.79</v>
+      </c>
+      <c r="G34" s="2">
+        <v>19.690000000000001</v>
+      </c>
+      <c r="H34" s="2">
+        <v>19.02</v>
+      </c>
+      <c r="I34" s="2">
+        <v>18.62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" s="2">
+        <v>6.88</v>
+      </c>
+      <c r="C35" s="2">
+        <v>6.32</v>
+      </c>
+      <c r="D35" s="2">
+        <v>6.43</v>
+      </c>
+      <c r="E35" s="2">
+        <v>5.99</v>
+      </c>
+      <c r="F35" s="2">
+        <v>5.34</v>
+      </c>
+      <c r="G35" s="2">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="H35" s="2">
+        <v>4.88</v>
+      </c>
+      <c r="I35" s="2">
+        <v>4.72</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="C36" s="2">
+        <v>3.53</v>
+      </c>
+      <c r="D36" s="2">
+        <v>3.7</v>
+      </c>
+      <c r="E36" s="2">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="F36" s="2">
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="G36" s="2">
+        <v>4.37</v>
+      </c>
+      <c r="H36" s="2">
+        <v>4.33</v>
+      </c>
+      <c r="I36" s="2">
+        <v>4.54</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" s="2">
+        <v>1.97</v>
+      </c>
+      <c r="C37" s="2">
+        <v>2.84</v>
+      </c>
+      <c r="D37" s="2">
+        <v>4.6900000000000004</v>
+      </c>
+      <c r="E37" s="2">
+        <v>6.57</v>
+      </c>
+      <c r="F37" s="2">
+        <v>7.23</v>
+      </c>
+      <c r="G37" s="2">
+        <v>7.59</v>
+      </c>
+      <c r="H37" s="2">
+        <v>7.47</v>
+      </c>
+      <c r="I37" s="2">
+        <v>7.45</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" s="2">
+        <v>0.23</v>
+      </c>
+      <c r="C38" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="D38" s="2">
+        <v>0.34</v>
+      </c>
+      <c r="E38" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="F38" s="2">
+        <v>0.37</v>
+      </c>
+      <c r="G38" s="2">
+        <v>0.41</v>
+      </c>
+      <c r="H38" s="2">
+        <v>0.43</v>
+      </c>
+      <c r="I38" s="2">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" s="2">
+        <v>0.39</v>
+      </c>
+      <c r="C39" s="2">
+        <v>0.59</v>
+      </c>
+      <c r="D39" s="2">
+        <v>0.49</v>
+      </c>
+      <c r="E39" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F39" s="2">
+        <v>0.36</v>
+      </c>
+      <c r="G39" s="2">
+        <v>0.39</v>
+      </c>
+      <c r="H39" s="2">
+        <v>0.41</v>
+      </c>
+      <c r="I39" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="C40" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="D40" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="E40" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="F40" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="G40" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="H40" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="I40" s="2">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41" s="2">
+        <v>0.88</v>
+      </c>
+      <c r="C41" s="2">
+        <v>1.25</v>
+      </c>
+      <c r="D41" s="2">
+        <v>1.05</v>
+      </c>
+      <c r="E41" s="2">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="F41" s="2">
+        <v>0.93</v>
+      </c>
+      <c r="G41" s="2">
+        <v>1.05</v>
+      </c>
+      <c r="H41" s="2">
+        <v>1.03</v>
+      </c>
+      <c r="I41" s="2">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42" s="2">
+        <v>0.48</v>
+      </c>
+      <c r="C42" s="2">
+        <v>1.53</v>
+      </c>
+      <c r="D42" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="E42" s="2">
+        <v>1.55</v>
+      </c>
+      <c r="F42" s="2">
+        <v>1.56</v>
+      </c>
+      <c r="G42" s="2">
+        <v>1.85</v>
+      </c>
+      <c r="H42" s="2">
+        <v>2</v>
+      </c>
+      <c r="I42" s="2">
+        <v>2.15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43" s="2">
+        <v>1.51</v>
+      </c>
+      <c r="C43" s="2">
+        <v>1.51</v>
+      </c>
+      <c r="D43" s="2">
+        <v>1.39</v>
+      </c>
+      <c r="E43" s="2">
+        <v>1.39</v>
+      </c>
+      <c r="F43" s="2">
+        <v>1.47</v>
+      </c>
+      <c r="G43" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="H43" s="2">
+        <v>1.62</v>
+      </c>
+      <c r="I43" s="2">
+        <v>1.59</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44" s="2">
+        <v>0.11</v>
+      </c>
+      <c r="C44" s="2">
+        <v>0.11</v>
+      </c>
+      <c r="D44" s="2">
+        <v>0.11</v>
+      </c>
+      <c r="E44" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F44" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G44" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H44" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I44" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B45" s="2">
+        <v>0.13</v>
+      </c>
+      <c r="C45" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="D45" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="E45" s="2">
+        <v>0.17</v>
+      </c>
+      <c r="F45" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="G45" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="H45" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="I45" s="2">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B46" s="2">
+        <v>0.93</v>
+      </c>
+      <c r="C46" s="2">
+        <v>1.28</v>
+      </c>
+      <c r="D46" s="2">
+        <v>1.55</v>
+      </c>
+      <c r="E46" s="2">
+        <v>1.58</v>
+      </c>
+      <c r="F46" s="2">
+        <v>1.62</v>
+      </c>
+      <c r="G46" s="2">
+        <v>1.65</v>
+      </c>
+      <c r="H46" s="2">
+        <v>1.69</v>
+      </c>
+      <c r="I46" s="2">
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B47" s="2">
+        <v>3.48</v>
+      </c>
+      <c r="C47" s="2">
+        <v>2.57</v>
+      </c>
+      <c r="D47" s="2">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E47" s="2">
+        <v>2.72</v>
+      </c>
+      <c r="F47" s="2">
+        <v>2.62</v>
+      </c>
+      <c r="G47" s="2">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="H47" s="2">
+        <v>2.6</v>
+      </c>
+      <c r="I47" s="2">
+        <v>2.64</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B48" s="2">
+        <v>8.98</v>
+      </c>
+      <c r="C48" s="2">
+        <v>5.52</v>
+      </c>
+      <c r="D48" s="2">
+        <v>5.51</v>
+      </c>
+      <c r="E48" s="2">
+        <v>5.78</v>
+      </c>
+      <c r="F48" s="2">
+        <v>5.99</v>
+      </c>
+      <c r="G48" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="H48" s="2">
+        <v>6.67</v>
+      </c>
+      <c r="I48" s="2">
+        <v>6.68</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B49" s="2">
+        <v>5.9</v>
+      </c>
+      <c r="C49" s="2">
+        <v>7.42</v>
+      </c>
+      <c r="D49" s="2">
+        <v>7.63</v>
+      </c>
+      <c r="E49" s="2">
+        <v>7.16</v>
+      </c>
+      <c r="F49" s="2">
+        <v>6.37</v>
+      </c>
+      <c r="G49" s="2">
+        <v>5.58</v>
+      </c>
+      <c r="H49" s="2">
+        <v>5.71</v>
+      </c>
+      <c r="I49" s="2">
+        <v>5.87</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B50" s="2">
+        <v>16.39</v>
+      </c>
+      <c r="C50" s="2">
+        <v>12.61</v>
+      </c>
+      <c r="D50" s="2">
+        <v>12.22</v>
+      </c>
+      <c r="E50" s="2">
+        <v>11.44</v>
+      </c>
+      <c r="F50" s="2">
+        <v>11</v>
+      </c>
+      <c r="G50" s="2">
+        <v>10.18</v>
+      </c>
+      <c r="H50" s="2">
+        <v>10.41</v>
+      </c>
+      <c r="I50" s="2">
+        <v>10.55</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B51" s="2">
+        <v>12.68</v>
+      </c>
+      <c r="C51" s="2">
+        <v>10.51</v>
+      </c>
+      <c r="D51" s="2">
+        <v>10.08</v>
+      </c>
+      <c r="E51" s="2">
+        <v>9.8800000000000008</v>
+      </c>
+      <c r="F51" s="2">
+        <v>9.7100000000000009</v>
+      </c>
+      <c r="G51" s="2">
+        <v>9.39</v>
+      </c>
+      <c r="H51" s="2">
+        <v>9.3699999999999992</v>
+      </c>
+      <c r="I51" s="2">
+        <v>9.4700000000000006</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B52" s="2">
+        <v>1.36</v>
+      </c>
+      <c r="C52" s="2">
+        <v>1.03</v>
+      </c>
+      <c r="D52" s="2">
+        <v>1.22</v>
+      </c>
+      <c r="E52" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="F52" s="2">
+        <v>1.52</v>
+      </c>
+      <c r="G52" s="2">
+        <v>1.66</v>
+      </c>
+      <c r="H52" s="2">
+        <v>1.58</v>
+      </c>
+      <c r="I52" s="2">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B53" s="2">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="C53" s="2">
+        <v>1.75</v>
+      </c>
+      <c r="D53" s="2">
+        <v>1.87</v>
+      </c>
+      <c r="E53" s="2">
+        <v>2.11</v>
+      </c>
+      <c r="F53" s="2">
+        <v>2.19</v>
+      </c>
+      <c r="G53" s="2">
+        <v>2.42</v>
+      </c>
+      <c r="H53" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="I53" s="2">
+        <v>2.5299999999999998</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B54" s="2">
+        <v>10.32</v>
+      </c>
+      <c r="C54" s="2">
+        <v>10</v>
+      </c>
+      <c r="D54" s="2">
+        <v>9.4</v>
+      </c>
+      <c r="E54" s="2">
+        <v>8.7100000000000009</v>
+      </c>
+      <c r="F54" s="2">
+        <v>7.46</v>
+      </c>
+      <c r="G54" s="2">
+        <v>6.97</v>
+      </c>
+      <c r="H54" s="2">
+        <v>6.35</v>
+      </c>
+      <c r="I54" s="2">
+        <v>6.66</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B55" s="2">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="C55" s="2">
+        <v>2.16</v>
+      </c>
+      <c r="D55" s="2">
+        <v>2.09</v>
+      </c>
+      <c r="E55" s="2">
+        <v>2.09</v>
+      </c>
+      <c r="F55" s="2">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="G55" s="2">
+        <v>2.14</v>
+      </c>
+      <c r="H55" s="2">
+        <v>2.17</v>
+      </c>
+      <c r="I55" s="2">
+        <v>2.21</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B56" s="2">
+        <v>2.56</v>
+      </c>
+      <c r="C56" s="2">
+        <v>2.61</v>
+      </c>
+      <c r="D56" s="2">
+        <v>2.88</v>
+      </c>
+      <c r="E56" s="2">
+        <v>3.18</v>
+      </c>
+      <c r="F56" s="2">
+        <v>3.45</v>
+      </c>
+      <c r="G56" s="2">
+        <v>3.7</v>
+      </c>
+      <c r="H56" s="2">
+        <v>3.91</v>
+      </c>
+      <c r="I56" s="2">
+        <v>3.85</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B57" s="2">
+        <v>1.62</v>
+      </c>
+      <c r="C57" s="2">
+        <v>1.54</v>
+      </c>
+      <c r="D57" s="2">
+        <v>1.96</v>
+      </c>
+      <c r="E57" s="2">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F57" s="2">
+        <v>2.48</v>
+      </c>
+      <c r="G57" s="2">
+        <v>2.73</v>
+      </c>
+      <c r="H57" s="2">
+        <v>2.62</v>
+      </c>
+      <c r="I57" s="2">
+        <v>2.44</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B58" s="2">
+        <v>1.57</v>
+      </c>
+      <c r="C58" s="2">
+        <v>1.73</v>
+      </c>
+      <c r="D58" s="2">
+        <v>2.23</v>
+      </c>
+      <c r="E58" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="F58" s="2">
+        <v>2.59</v>
+      </c>
+      <c r="G58" s="2">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="H58" s="2">
+        <v>2.23</v>
+      </c>
+      <c r="I58" s="2">
+        <v>2.29</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B59" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="C59" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="D59" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="E59" s="2">
+        <v>0.11</v>
+      </c>
+      <c r="F59" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G59" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H59" s="2">
+        <v>0.13</v>
+      </c>
+      <c r="I59" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B60" s="2">
+        <v>0.47</v>
+      </c>
+      <c r="C60" s="2">
+        <v>0.34</v>
+      </c>
+      <c r="D60" s="2">
+        <v>0.31</v>
+      </c>
+      <c r="E60" s="2">
+        <v>0.38</v>
+      </c>
+      <c r="F60" s="2">
+        <v>0.39</v>
+      </c>
+      <c r="G60" s="2">
+        <v>0.39</v>
+      </c>
+      <c r="H60" s="2">
+        <v>0.38</v>
+      </c>
+      <c r="I60" s="2">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B61" s="2">
+        <v>5.75</v>
+      </c>
+      <c r="C61" s="2">
+        <v>7.48</v>
+      </c>
+      <c r="D61" s="2">
+        <v>8.24</v>
+      </c>
+      <c r="E61" s="2">
+        <v>6.03</v>
+      </c>
+      <c r="F61" s="2">
+        <v>5.81</v>
+      </c>
+      <c r="G61" s="2">
+        <v>5.25</v>
+      </c>
+      <c r="H61" s="2">
+        <v>5.6</v>
+      </c>
+      <c r="I61" s="2">
+        <v>5.44</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B62" s="2">
+        <v>23.55</v>
+      </c>
+      <c r="C62" s="2">
+        <v>10.92</v>
+      </c>
+      <c r="D62" s="2">
+        <v>13.07</v>
+      </c>
+      <c r="E62" s="2">
+        <v>13.96</v>
+      </c>
+      <c r="F62" s="2">
+        <v>15.31</v>
+      </c>
+      <c r="G62" s="2">
+        <v>16.2</v>
+      </c>
+      <c r="H62" s="2">
+        <v>16.8</v>
+      </c>
+      <c r="I62" s="2">
+        <v>17.100000000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B63" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="C63" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="D63" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E63" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F63" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="G63" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="H63" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="I63" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B64" s="2">
+        <v>11.25</v>
+      </c>
+      <c r="C64" s="2">
+        <v>11.45</v>
+      </c>
+      <c r="D64" s="2">
+        <v>11.28</v>
+      </c>
+      <c r="E64" s="2">
+        <v>12.35</v>
+      </c>
+      <c r="F64" s="2">
+        <v>10.56</v>
+      </c>
+      <c r="G64" s="2">
+        <v>9.74</v>
+      </c>
+      <c r="H64" s="2">
+        <v>9.01</v>
+      </c>
+      <c r="I64" s="2">
+        <v>9.31</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B65" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="C65" s="2">
+        <v>0.65</v>
+      </c>
+      <c r="D65" s="2">
+        <v>1.07</v>
+      </c>
+      <c r="E65" s="2">
+        <v>1.37</v>
+      </c>
+      <c r="F65" s="2">
+        <v>1.48</v>
+      </c>
+      <c r="G65" s="2">
+        <v>1.69</v>
+      </c>
+      <c r="H65" s="2">
+        <v>1.78</v>
+      </c>
+      <c r="I65" s="2">
+        <v>1.89</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B66" s="2">
+        <v>12.47</v>
+      </c>
+      <c r="C66" s="2">
+        <v>8.69</v>
+      </c>
+      <c r="D66" s="2">
+        <v>10.54</v>
+      </c>
+      <c r="E66" s="2">
+        <v>13.02</v>
+      </c>
+      <c r="F66" s="2">
+        <v>14.4</v>
+      </c>
+      <c r="G66" s="2">
+        <v>15.92</v>
+      </c>
+      <c r="H66" s="2">
+        <v>16.5</v>
+      </c>
+      <c r="I66" s="2">
+        <v>16.690000000000001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B67" s="2">
+        <v>6.61</v>
+      </c>
+      <c r="C67" s="2">
+        <v>6.6</v>
+      </c>
+      <c r="D67" s="2">
+        <v>6.61</v>
+      </c>
+      <c r="E67" s="2">
+        <v>5.99</v>
+      </c>
+      <c r="F67" s="2">
+        <v>5.45</v>
+      </c>
+      <c r="G67" s="2">
+        <v>5</v>
+      </c>
+      <c r="H67" s="2">
+        <v>5.03</v>
+      </c>
+      <c r="I67" s="2">
+        <v>5.12</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B68" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="C68" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="D68" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="E68" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="F68" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="G68" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="H68" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="I68" s="2">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B69" s="2">
+        <v>5.82</v>
+      </c>
+      <c r="C69" s="2">
+        <v>4.79</v>
+      </c>
+      <c r="D69" s="2">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="E69" s="2">
+        <v>3.14</v>
+      </c>
+      <c r="F69" s="2">
+        <v>2.79</v>
+      </c>
+      <c r="G69" s="2">
+        <v>2.86</v>
+      </c>
+      <c r="H69" s="2">
+        <v>2.92</v>
+      </c>
+      <c r="I69" s="2">
+        <v>2.88</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B70" s="2">
+        <v>10.07</v>
+      </c>
+      <c r="C70" s="2">
+        <v>9.23</v>
+      </c>
+      <c r="D70" s="2">
+        <v>9.14</v>
+      </c>
+      <c r="E70" s="2">
+        <v>7.73</v>
+      </c>
+      <c r="F70" s="2">
+        <v>7.19</v>
+      </c>
+      <c r="G70" s="2">
+        <v>6.31</v>
+      </c>
+      <c r="H70" s="2">
+        <v>6.01</v>
+      </c>
+      <c r="I70" s="2">
+        <v>5.59</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B71" s="2">
+        <v>6.39</v>
+      </c>
+      <c r="C71" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D71" s="2">
+        <v>1.07</v>
+      </c>
+      <c r="E71" s="2">
+        <v>1.36</v>
+      </c>
+      <c r="F71" s="2">
+        <v>1.71</v>
+      </c>
+      <c r="G71" s="2">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="H71" s="2">
+        <v>2.12</v>
+      </c>
+      <c r="I71" s="2">
+        <v>2.19</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B72" s="2">
+        <v>0.21</v>
+      </c>
+      <c r="C72" s="2">
+        <v>0.32</v>
+      </c>
+      <c r="D72" s="2">
+        <v>0.33</v>
+      </c>
+      <c r="E72" s="2">
+        <v>0.46</v>
+      </c>
+      <c r="F72" s="2">
+        <v>0.52</v>
+      </c>
+      <c r="G72" s="2">
+        <v>0.51</v>
+      </c>
+      <c r="H72" s="2">
+        <v>0.51</v>
+      </c>
+      <c r="I72" s="2">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B73" s="2">
+        <v>4.92</v>
+      </c>
+      <c r="C73" s="2">
+        <v>10.94</v>
+      </c>
+      <c r="D73" s="2">
+        <v>12.77</v>
+      </c>
+      <c r="E73" s="2">
+        <v>14.41</v>
+      </c>
+      <c r="F73" s="2">
+        <v>13.87</v>
+      </c>
+      <c r="G73" s="2">
+        <v>15.75</v>
+      </c>
+      <c r="H73" s="2">
+        <v>16.170000000000002</v>
+      </c>
+      <c r="I73" s="2">
+        <v>16.649999999999999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B74" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="C74" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="D74" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E74" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="F74" s="2">
+        <v>0.17</v>
+      </c>
+      <c r="G74" s="2">
+        <v>0.17</v>
+      </c>
+      <c r="H74" s="2">
+        <v>0.17</v>
+      </c>
+      <c r="I74" s="2">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B75" s="2">
+        <v>3.33</v>
+      </c>
+      <c r="C75" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D75" s="2">
+        <v>4.17</v>
+      </c>
+      <c r="E75" s="2">
+        <v>4.72</v>
+      </c>
+      <c r="F75" s="2">
+        <v>4.7</v>
+      </c>
+      <c r="G75" s="2">
+        <v>5.21</v>
+      </c>
+      <c r="H75" s="2">
+        <v>5.41</v>
+      </c>
+      <c r="I75" s="2">
+        <v>5.51</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B76" s="2">
+        <v>0.11</v>
+      </c>
+      <c r="C76" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="D76" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="E76" s="2">
+        <v>0.13</v>
+      </c>
+      <c r="F76" s="2">
+        <v>0.13</v>
+      </c>
+      <c r="G76" s="2">
+        <v>0.13</v>
+      </c>
+      <c r="H76" s="2">
+        <v>0.13</v>
+      </c>
+      <c r="I76" s="2">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B77" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="C77" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="D77" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="E77" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="F77" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="G77" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="H77" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="I77" s="2">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B78" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="C78" s="2">
+        <v>3.6</v>
+      </c>
+      <c r="D78" s="2">
+        <v>3.98</v>
+      </c>
+      <c r="E78" s="2">
+        <v>2.79</v>
+      </c>
+      <c r="F78" s="2">
+        <v>2.25</v>
+      </c>
+      <c r="G78" s="2">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="H78" s="2">
+        <v>1.83</v>
+      </c>
+      <c r="I78" s="2">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B79" s="2">
+        <v>7.66</v>
+      </c>
+      <c r="C79" s="2">
+        <v>8.66</v>
+      </c>
+      <c r="D79" s="2">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="E79" s="2">
+        <v>7.84</v>
+      </c>
+      <c r="F79" s="2">
+        <v>7.33</v>
+      </c>
+      <c r="G79" s="2">
+        <v>6.43</v>
+      </c>
+      <c r="H79" s="2">
+        <v>6.27</v>
+      </c>
+      <c r="I79" s="2">
+        <v>6.06</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B80" s="2">
+        <v>1.51</v>
+      </c>
+      <c r="C80" s="2">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="D80" s="2">
+        <v>3.91</v>
+      </c>
+      <c r="E80" s="2">
+        <v>4.83</v>
+      </c>
+      <c r="F80" s="2">
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="G80" s="2">
+        <v>4.96</v>
+      </c>
+      <c r="H80" s="2">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="I80" s="2">
+        <v>5.19</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B81" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="C81" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="D81" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="E81" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="F81" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="G81" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="H81" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="I81" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B82" s="2">
+        <v>0.42</v>
+      </c>
+      <c r="C82" s="2">
+        <v>0.81</v>
+      </c>
+      <c r="D82" s="2">
+        <v>0.89</v>
+      </c>
+      <c r="E82" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="F82" s="2">
+        <v>0.77</v>
+      </c>
+      <c r="G82" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H82" s="2">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="I82" s="2">
+        <v>1.1200000000000001</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B83" s="2">
+        <v>5.74</v>
+      </c>
+      <c r="C83" s="2">
+        <v>5.2</v>
+      </c>
+      <c r="D83" s="2">
+        <v>4.83</v>
+      </c>
+      <c r="E83" s="2">
+        <v>5.15</v>
+      </c>
+      <c r="F83" s="2">
+        <v>5.09</v>
+      </c>
+      <c r="G83" s="2">
+        <v>5.33</v>
+      </c>
+      <c r="H83" s="2">
+        <v>5.39</v>
+      </c>
+      <c r="I83" s="2">
+        <v>5.34</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B84" s="2">
+        <v>2.23</v>
+      </c>
+      <c r="C84" s="2">
+        <v>3.36</v>
+      </c>
+      <c r="D84" s="2">
+        <v>3.23</v>
+      </c>
+      <c r="E84" s="2">
+        <v>3.62</v>
+      </c>
+      <c r="F84" s="2">
+        <v>3.62</v>
+      </c>
+      <c r="G84" s="2">
+        <v>3.99</v>
+      </c>
+      <c r="H84" s="2">
+        <v>4.16</v>
+      </c>
+      <c r="I84" s="2">
+        <v>4.21</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B85" s="2">
+        <v>6.08</v>
+      </c>
+      <c r="C85" s="2">
+        <v>6.33</v>
+      </c>
+      <c r="D85" s="2">
+        <v>6.31</v>
+      </c>
+      <c r="E85" s="2">
+        <v>6.04</v>
+      </c>
+      <c r="F85" s="2">
+        <v>6.67</v>
+      </c>
+      <c r="G85" s="2">
+        <v>6.99</v>
+      </c>
+      <c r="H85" s="2">
+        <v>6.41</v>
+      </c>
+      <c r="I85" s="2">
+        <v>6.45</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B86" s="2">
+        <v>0.47</v>
+      </c>
+      <c r="C86" s="2">
+        <v>0.77</v>
+      </c>
+      <c r="D86" s="2">
+        <v>1.05</v>
+      </c>
+      <c r="E86" s="2">
+        <v>0.98</v>
+      </c>
+      <c r="F86" s="2">
+        <v>1</v>
+      </c>
+      <c r="G86" s="2">
+        <v>1</v>
+      </c>
+      <c r="H86" s="2">
+        <v>1.02</v>
+      </c>
+      <c r="I86" s="2">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B87" s="2">
+        <v>5.26</v>
+      </c>
+      <c r="C87" s="2">
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="D87" s="2">
+        <v>5.21</v>
+      </c>
+      <c r="E87" s="2">
+        <v>4.82</v>
+      </c>
+      <c r="F87" s="2">
+        <v>4.51</v>
+      </c>
+      <c r="G87" s="2">
+        <v>4.3</v>
+      </c>
+      <c r="H87" s="2">
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="I87" s="2">
+        <v>4.6100000000000003</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B88" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="C88" s="2">
+        <v>0.19</v>
+      </c>
+      <c r="D88" s="2">
+        <v>0.24</v>
+      </c>
+      <c r="E88" s="2">
+        <v>0.23</v>
+      </c>
+      <c r="F88" s="2">
+        <v>0.22</v>
+      </c>
+      <c r="G88" s="2">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="H88" s="2">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="I88" s="2">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B89" s="2">
+        <v>6.84</v>
+      </c>
+      <c r="C89" s="2">
+        <v>5.69</v>
+      </c>
+      <c r="D89" s="2">
+        <v>5.88</v>
+      </c>
+      <c r="E89" s="2">
+        <v>5.19</v>
+      </c>
+      <c r="F89" s="2">
+        <v>4.92</v>
+      </c>
+      <c r="G89" s="2">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="H89" s="2">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="I89" s="2">
+        <v>5.23</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B90" s="2">
+        <v>0.88</v>
+      </c>
+      <c r="C90" s="2">
+        <v>1.39</v>
+      </c>
+      <c r="D90" s="2">
+        <v>1.59</v>
+      </c>
+      <c r="E90" s="2">
+        <v>1.74</v>
+      </c>
+      <c r="F90" s="2">
+        <v>1.78</v>
+      </c>
+      <c r="G90" s="2">
+        <v>1.92</v>
+      </c>
+      <c r="H90" s="2">
+        <v>1.93</v>
+      </c>
+      <c r="I90" s="2">
+        <v>2.0299999999999998</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B91" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="C91" s="2">
+        <v>1.01</v>
+      </c>
+      <c r="D91" s="2">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="E91" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="F91" s="2">
+        <v>1.66</v>
+      </c>
+      <c r="G91" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="H91" s="2">
+        <v>1.85</v>
+      </c>
+      <c r="I91" s="2">
+        <v>1.92</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="A92" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B92" s="2">
+        <v>9.11</v>
+      </c>
+      <c r="C92" s="2">
+        <v>11.39</v>
+      </c>
+      <c r="D92" s="2">
+        <v>11.27</v>
+      </c>
+      <c r="E92" s="2">
+        <v>9.01</v>
+      </c>
+      <c r="F92" s="2">
+        <v>7.77</v>
+      </c>
+      <c r="G92" s="2">
+        <v>7.48</v>
+      </c>
+      <c r="H92" s="2">
+        <v>7.91</v>
+      </c>
+      <c r="I92" s="2">
+        <v>8.26</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B93" s="2">
+        <v>3.59</v>
+      </c>
+      <c r="C93" s="2">
+        <v>5.29</v>
+      </c>
+      <c r="D93" s="2">
+        <v>6.61</v>
+      </c>
+      <c r="E93" s="2">
+        <v>7.62</v>
+      </c>
+      <c r="F93" s="2">
+        <v>7.73</v>
+      </c>
+      <c r="G93" s="2">
+        <v>8.11</v>
+      </c>
+      <c r="H93" s="2">
+        <v>7.92</v>
+      </c>
+      <c r="I93" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="A94" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B94" s="2">
+        <v>3.83</v>
+      </c>
+      <c r="C94" s="2">
+        <v>3.58</v>
+      </c>
+      <c r="D94" s="2">
+        <v>3.3</v>
+      </c>
+      <c r="E94" s="2">
+        <v>3.95</v>
+      </c>
+      <c r="F94" s="2">
+        <v>4.34</v>
+      </c>
+      <c r="G94" s="2">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="H94" s="2">
+        <v>4.45</v>
+      </c>
+      <c r="I94" s="2">
+        <v>4.37</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
+      <c r="A95" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B95" s="2">
+        <v>9.17</v>
+      </c>
+      <c r="C95" s="2">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="D95" s="2">
+        <v>10.6</v>
+      </c>
+      <c r="E95" s="2">
+        <v>11.42</v>
+      </c>
+      <c r="F95" s="2">
+        <v>11.07</v>
+      </c>
+      <c r="G95" s="2">
+        <v>11.54</v>
+      </c>
+      <c r="H95" s="2">
+        <v>11.7</v>
+      </c>
+      <c r="I95" s="2">
+        <v>11.82</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
+      <c r="A96" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B96" s="2">
+        <v>7.82</v>
+      </c>
+      <c r="C96" s="2">
+        <v>9.86</v>
+      </c>
+      <c r="D96" s="2">
+        <v>9.39</v>
+      </c>
+      <c r="E96" s="2">
+        <v>9.48</v>
+      </c>
+      <c r="F96" s="2">
+        <v>9.2100000000000009</v>
+      </c>
+      <c r="G96" s="2">
+        <v>7.87</v>
+      </c>
+      <c r="H96" s="2">
+        <v>8.1199999999999992</v>
+      </c>
+      <c r="I96" s="2">
+        <v>7.96</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
+      <c r="A97" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B97" s="2">
+        <v>7.41</v>
+      </c>
+      <c r="C97" s="2">
+        <v>7.9</v>
+      </c>
+      <c r="D97" s="2">
+        <v>8.34</v>
+      </c>
+      <c r="E97" s="2">
+        <v>7.04</v>
+      </c>
+      <c r="F97" s="2">
+        <v>6.58</v>
+      </c>
+      <c r="G97" s="2">
+        <v>5.74</v>
+      </c>
+      <c r="H97" s="2">
+        <v>5.97</v>
+      </c>
+      <c r="I97" s="2">
+        <v>6.03</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
+      <c r="A98" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B98" s="2">
+        <v>3.1</v>
+      </c>
+      <c r="C98" s="2">
+        <v>3.84</v>
+      </c>
+      <c r="D98" s="2">
+        <v>3.87</v>
+      </c>
+      <c r="E98" s="2">
+        <v>2.8</v>
+      </c>
+      <c r="F98" s="2">
+        <v>2.85</v>
+      </c>
+      <c r="G98" s="2">
+        <v>2.96</v>
+      </c>
+      <c r="H98" s="2">
+        <v>3.06</v>
+      </c>
+      <c r="I98" s="2">
+        <v>3.11</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
+      <c r="A99" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B99" s="2">
+        <v>2.86</v>
+      </c>
+      <c r="C99" s="2">
+        <v>3.06</v>
+      </c>
+      <c r="D99" s="2">
+        <v>3.49</v>
+      </c>
+      <c r="E99" s="2">
+        <v>2.88</v>
+      </c>
+      <c r="F99" s="2">
+        <v>2.74</v>
+      </c>
+      <c r="G99" s="2">
+        <v>2.63</v>
+      </c>
+      <c r="H99" s="2">
+        <v>2.44</v>
+      </c>
+      <c r="I99" s="2">
+        <v>2.41</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="A100" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B100" s="2">
+        <v>9.27</v>
+      </c>
+      <c r="C100" s="2">
+        <v>9.85</v>
+      </c>
+      <c r="D100" s="2">
+        <v>10.11</v>
+      </c>
+      <c r="E100" s="2">
+        <v>9.48</v>
+      </c>
+      <c r="F100" s="2">
+        <v>10.16</v>
+      </c>
+      <c r="G100" s="2">
+        <v>10.029999999999999</v>
+      </c>
+      <c r="H100" s="2">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="I100" s="2">
+        <v>9.68</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
+      <c r="A101" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B101" s="2">
+        <v>15.19</v>
+      </c>
+      <c r="C101" s="2">
+        <v>8.73</v>
+      </c>
+      <c r="D101" s="2">
+        <v>11.93</v>
+      </c>
+      <c r="E101" s="2">
+        <v>14.94</v>
+      </c>
+      <c r="F101" s="2">
+        <v>14.68</v>
+      </c>
+      <c r="G101" s="2">
+        <v>13.77</v>
+      </c>
+      <c r="H101" s="2">
+        <v>12.89</v>
+      </c>
+      <c r="I101" s="2">
+        <v>12.88</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
+      <c r="A102" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B102" s="2">
+        <v>0.27</v>
+      </c>
+      <c r="C102" s="2">
+        <v>0.27</v>
+      </c>
+      <c r="D102" s="2">
+        <v>0.24</v>
+      </c>
+      <c r="E102" s="2">
+        <v>0.32</v>
+      </c>
+      <c r="F102" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="G102" s="2">
+        <v>0.34</v>
+      </c>
+      <c r="H102" s="2">
+        <v>0.33</v>
+      </c>
+      <c r="I102" s="2">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
+      <c r="A103" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B103" s="2">
+        <v>5.4</v>
+      </c>
+      <c r="C103" s="2">
+        <v>0.96</v>
+      </c>
+      <c r="D103" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="E103" s="2">
+        <v>0.91</v>
+      </c>
+      <c r="F103" s="2">
+        <v>1.31</v>
+      </c>
+      <c r="G103" s="2">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="H103" s="2">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="I103" s="2">
+        <v>1.1599999999999999</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
+      <c r="A104" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B104" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="C104" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="D104" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="E104" s="2">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="F104" s="2">
+        <v>0.31</v>
+      </c>
+      <c r="G104" s="2">
+        <v>0.37</v>
+      </c>
+      <c r="H104" s="2">
+        <v>0.39</v>
+      </c>
+      <c r="I104" s="2">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
+      <c r="A105" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B105" s="2">
+        <v>0.27</v>
+      </c>
+      <c r="C105" s="2">
+        <v>0.34</v>
+      </c>
+      <c r="D105" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="E105" s="2">
+        <v>0.34</v>
+      </c>
+      <c r="F105" s="2">
+        <v>0.37</v>
+      </c>
+      <c r="G105" s="2">
+        <v>0.42</v>
+      </c>
+      <c r="H105" s="2">
+        <v>0.44</v>
+      </c>
+      <c r="I105" s="2">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
+      <c r="A106" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B106" s="2">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="C106" s="2">
+        <v>3.22</v>
+      </c>
+      <c r="D106" s="2">
+        <v>2.9</v>
+      </c>
+      <c r="E106" s="2">
+        <v>3.19</v>
+      </c>
+      <c r="F106" s="2">
+        <v>3.27</v>
+      </c>
+      <c r="G106" s="2">
+        <v>3.58</v>
+      </c>
+      <c r="H106" s="2">
+        <v>3.68</v>
+      </c>
+      <c r="I106" s="2">
+        <v>3.71</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
+      <c r="A107" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B107" s="2">
+        <v>6.25</v>
+      </c>
+      <c r="C107" s="2">
+        <v>10.09</v>
+      </c>
+      <c r="D107" s="2">
+        <v>10.53</v>
+      </c>
+      <c r="E107" s="2">
+        <v>11.97</v>
+      </c>
+      <c r="F107" s="2">
+        <v>12.13</v>
+      </c>
+      <c r="G107" s="2">
+        <v>11.87</v>
+      </c>
+      <c r="H107" s="2">
+        <v>11.88</v>
+      </c>
+      <c r="I107" s="2">
+        <v>11.89</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
+      <c r="A108" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B108" s="2">
+        <v>15.32</v>
+      </c>
+      <c r="C108" s="2">
+        <v>26.38</v>
+      </c>
+      <c r="D108" s="2">
+        <v>32.61</v>
+      </c>
+      <c r="E108" s="2">
+        <v>28.93</v>
+      </c>
+      <c r="F108" s="2">
+        <v>27.03</v>
+      </c>
+      <c r="G108" s="2">
+        <v>24.72</v>
+      </c>
+      <c r="H108" s="2">
+        <v>25.41</v>
+      </c>
+      <c r="I108" s="2">
+        <v>25.06</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
+      <c r="A109" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B109" s="2">
+        <v>0.32</v>
+      </c>
+      <c r="C109" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="D109" s="2">
+        <v>0.26</v>
+      </c>
+      <c r="E109" s="2">
+        <v>0.45</v>
+      </c>
+      <c r="F109" s="2">
+        <v>0.51</v>
+      </c>
+      <c r="G109" s="2">
+        <v>0.61</v>
+      </c>
+      <c r="H109" s="2">
+        <v>0.63</v>
+      </c>
+      <c r="I109" s="2">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
+      <c r="A110" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B110" s="2">
+        <v>2.21</v>
+      </c>
+      <c r="C110" s="2">
+        <v>4.7</v>
+      </c>
+      <c r="D110" s="2">
+        <v>4.13</v>
+      </c>
+      <c r="E110" s="2">
+        <v>4.74</v>
+      </c>
+      <c r="F110" s="2">
+        <v>4.29</v>
+      </c>
+      <c r="G110" s="2">
+        <v>3.98</v>
+      </c>
+      <c r="H110" s="2">
+        <v>3.67</v>
+      </c>
+      <c r="I110" s="2">
+        <v>3.64</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
+      <c r="A111" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B111" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="C111" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="D111" s="2">
+        <v>0.17</v>
+      </c>
+      <c r="E111" s="2">
+        <v>0.17</v>
+      </c>
+      <c r="F111" s="2">
+        <v>0.17</v>
+      </c>
+      <c r="G111" s="2">
+        <v>0.19</v>
+      </c>
+      <c r="H111" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="I111" s="2">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
+      <c r="A112" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B112" s="2">
+        <v>8</v>
+      </c>
+      <c r="C112" s="2">
+        <v>8.9499999999999993</v>
+      </c>
+      <c r="D112" s="2">
+        <v>9.41</v>
+      </c>
+      <c r="E112" s="2">
+        <v>10.49</v>
+      </c>
+      <c r="F112" s="2">
+        <v>8.66</v>
+      </c>
+      <c r="G112" s="2">
+        <v>8.15</v>
+      </c>
+      <c r="H112" s="2">
+        <v>8.33</v>
+      </c>
+      <c r="I112" s="2">
+        <v>8.3800000000000008</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
+      <c r="A113" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B113" s="2">
+        <v>1.57</v>
+      </c>
+      <c r="C113" s="2">
+        <v>2.31</v>
+      </c>
+      <c r="D113" s="2">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="E113" s="2">
+        <v>2.79</v>
+      </c>
+      <c r="F113" s="2">
+        <v>2.95</v>
+      </c>
+      <c r="G113" s="2">
+        <v>3.27</v>
+      </c>
+      <c r="H113" s="2">
+        <v>3.38</v>
+      </c>
+      <c r="I113" s="2">
+        <v>3.42</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
+      <c r="A114" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B114" s="2">
+        <v>0.24</v>
+      </c>
+      <c r="C114" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="D114" s="2">
+        <v>0.74</v>
+      </c>
+      <c r="E114" s="2">
+        <v>0.71</v>
+      </c>
+      <c r="F114" s="2">
+        <v>0.76</v>
+      </c>
+      <c r="G114" s="2">
+        <v>0.77</v>
+      </c>
+      <c r="H114" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="I114" s="2">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
+      <c r="A115" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B115" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="C115" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="D115" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="E115" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F115" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G115" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H115" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I115" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
+      <c r="A116" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B116" s="2">
+        <v>9.49</v>
+      </c>
+      <c r="C116" s="2">
+        <v>3.32</v>
+      </c>
+      <c r="D116" s="2">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="E116" s="2">
+        <v>4.37</v>
+      </c>
+      <c r="F116" s="2">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="G116" s="2">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="H116" s="2">
+        <v>4.55</v>
+      </c>
+      <c r="I116" s="2">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
+      <c r="A117" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B117" s="2">
+        <v>30.52</v>
+      </c>
+      <c r="C117" s="2">
+        <v>19.96</v>
+      </c>
+      <c r="D117" s="2">
+        <v>26.3</v>
+      </c>
+      <c r="E117" s="2">
+        <v>21.94</v>
+      </c>
+      <c r="F117" s="2">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="G117" s="2">
+        <v>17.22</v>
+      </c>
+      <c r="H117" s="2">
+        <v>17.3</v>
+      </c>
+      <c r="I117" s="2">
+        <v>17.61</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
+      <c r="A118" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B118" s="2">
+        <v>7.64</v>
+      </c>
+      <c r="C118" s="2">
+        <v>3.06</v>
+      </c>
+      <c r="D118" s="2">
+        <v>3.55</v>
+      </c>
+      <c r="E118" s="2">
+        <v>4.04</v>
+      </c>
+      <c r="F118" s="2">
+        <v>3.77</v>
+      </c>
+      <c r="G118" s="2">
+        <v>3.81</v>
+      </c>
+      <c r="H118" s="2">
+        <v>3.96</v>
+      </c>
+      <c r="I118" s="2">
+        <v>4.1399999999999997</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
+      <c r="A119" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B119" s="2">
+        <v>1.91</v>
+      </c>
+      <c r="C119" s="2">
+        <v>3.1</v>
+      </c>
+      <c r="D119" s="2">
+        <v>4.3</v>
+      </c>
+      <c r="E119" s="2">
+        <v>3.97</v>
+      </c>
+      <c r="F119" s="2">
+        <v>4.16</v>
+      </c>
+      <c r="G119" s="2">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="H119" s="2">
+        <v>4.82</v>
+      </c>
+      <c r="I119" s="2">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
+      <c r="A120" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B120" s="2">
+        <v>0.99</v>
+      </c>
+      <c r="C120" s="2">
+        <v>1.23</v>
+      </c>
+      <c r="D120" s="2">
+        <v>1.52</v>
+      </c>
+      <c r="E120" s="2">
+        <v>1.58</v>
+      </c>
+      <c r="F120" s="2">
+        <v>1.67</v>
+      </c>
+      <c r="G120" s="2">
+        <v>1.67</v>
+      </c>
+      <c r="H120" s="2">
+        <v>1.65</v>
+      </c>
+      <c r="I120" s="2">
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
+      <c r="A121" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B121" s="2">
+        <v>7.31</v>
+      </c>
+      <c r="C121" s="2">
+        <v>1.59</v>
+      </c>
+      <c r="D121" s="2">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="E121" s="2">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="F121" s="2">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="G121" s="2">
+        <v>1.95</v>
+      </c>
+      <c r="H121" s="2">
+        <v>1.97</v>
+      </c>
+      <c r="I121" s="2">
+        <v>2.0299999999999998</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
+      <c r="A122" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B122" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="C122" s="2">
+        <v>0.11</v>
+      </c>
+      <c r="D122" s="2">
+        <v>0.11</v>
+      </c>
+      <c r="E122" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="F122" s="2">
+        <v>0.13</v>
+      </c>
+      <c r="G122" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="H122" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="I122" s="2">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
+      <c r="A123" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B123" s="2">
+        <v>0.26</v>
+      </c>
+      <c r="C123" s="2">
+        <v>1</v>
+      </c>
+      <c r="D123" s="2">
+        <v>1.69</v>
+      </c>
+      <c r="E123" s="2">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="F123" s="2">
+        <v>2.41</v>
+      </c>
+      <c r="G123" s="2">
+        <v>2.64</v>
+      </c>
+      <c r="H123" s="2">
+        <v>2.75</v>
+      </c>
+      <c r="I123" s="2">
+        <v>2.88</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
+      <c r="A124" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B124" s="2">
+        <v>3.39</v>
+      </c>
+      <c r="C124" s="2">
+        <v>3.7</v>
+      </c>
+      <c r="D124" s="2">
+        <v>3.83</v>
+      </c>
+      <c r="E124" s="2">
+        <v>3.83</v>
+      </c>
+      <c r="F124" s="2">
+        <v>3.96</v>
+      </c>
+      <c r="G124" s="2">
+        <v>3.66</v>
+      </c>
+      <c r="H124" s="2">
+        <v>3.58</v>
+      </c>
+      <c r="I124" s="2">
+        <v>3.45</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
+      <c r="A125" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B125" s="2">
+        <v>5.58</v>
+      </c>
+      <c r="C125" s="2">
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="D125" s="2">
+        <v>4.68</v>
+      </c>
+      <c r="E125" s="2">
+        <v>4.41</v>
+      </c>
+      <c r="F125" s="2">
+        <v>4.74</v>
+      </c>
+      <c r="G125" s="2">
+        <v>4.05</v>
+      </c>
+      <c r="H125" s="2">
+        <v>4.21</v>
+      </c>
+      <c r="I125" s="2">
+        <v>4.28</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
+      <c r="A126" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B126" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="C126" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="D126" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="E126" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="F126" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="G126" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="H126" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="I126" s="2">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
+      <c r="A127" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B127" s="2">
+        <v>6.38</v>
+      </c>
+      <c r="C127" s="2">
+        <v>5.37</v>
+      </c>
+      <c r="D127" s="2">
+        <v>6.71</v>
+      </c>
+      <c r="E127" s="2">
+        <v>5.95</v>
+      </c>
+      <c r="F127" s="2">
+        <v>5.79</v>
+      </c>
+      <c r="G127" s="2">
+        <v>4.96</v>
+      </c>
+      <c r="H127" s="2">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="I127" s="2">
+        <v>5.26</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
+      <c r="A128" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B128" s="2">
+        <v>0.11</v>
+      </c>
+      <c r="C128" s="2">
+        <v>0.22</v>
+      </c>
+      <c r="D128" s="2">
+        <v>0.23</v>
+      </c>
+      <c r="E128" s="2">
+        <v>0.17</v>
+      </c>
+      <c r="F128" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="G128" s="2">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="H128" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="I128" s="2">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
+      <c r="A129" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B129" s="2">
+        <v>6.05</v>
+      </c>
+      <c r="C129" s="2">
+        <v>3.77</v>
+      </c>
+      <c r="D129" s="2">
+        <v>3.85</v>
+      </c>
+      <c r="E129" s="2">
+        <v>4.82</v>
+      </c>
+      <c r="F129" s="2">
+        <v>5.01</v>
+      </c>
+      <c r="G129" s="2">
+        <v>5.09</v>
+      </c>
+      <c r="H129" s="2">
+        <v>5.28</v>
+      </c>
+      <c r="I129" s="2">
+        <v>6.13</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
+      <c r="A130" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B130" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="C130" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="D130" s="2">
+        <v>0.13</v>
+      </c>
+      <c r="E130" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="F130" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="G130" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="H130" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="I130" s="2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
+      <c r="A131" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B131" s="2">
+        <v>0.24</v>
+      </c>
+      <c r="C131" s="2">
+        <v>0.48</v>
+      </c>
+      <c r="D131" s="2">
+        <v>0.52</v>
+      </c>
+      <c r="E131" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="F131" s="2">
+        <v>0.62</v>
+      </c>
+      <c r="G131" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="H131" s="2">
+        <v>0.59</v>
+      </c>
+      <c r="I131" s="2">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
+      <c r="A132" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B132" s="2">
+        <v>4.32</v>
+      </c>
+      <c r="C132" s="2">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="D132" s="2">
+        <v>4.76</v>
+      </c>
+      <c r="E132" s="2">
+        <v>5.48</v>
+      </c>
+      <c r="F132" s="2">
+        <v>5.91</v>
+      </c>
+      <c r="G132" s="2">
+        <v>6.64</v>
+      </c>
+      <c r="H132" s="2">
+        <v>6.92</v>
+      </c>
+      <c r="I132" s="2">
+        <v>7.05</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
+      <c r="A133" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B133" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="C133" s="2">
+        <v>1.23</v>
+      </c>
+      <c r="D133" s="2">
+        <v>1.86</v>
+      </c>
+      <c r="E133" s="2">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F133" s="2">
+        <v>2.41</v>
+      </c>
+      <c r="G133" s="2">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="H133" s="2">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="I133" s="2">
+        <v>2.5299999999999998</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
+      <c r="A134" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B134" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C134" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="D134" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="E134" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="F134" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="G134" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="H134" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="I134" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
+      <c r="A135" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B135" s="2">
+        <v>3.06</v>
+      </c>
+      <c r="C135" s="2">
+        <v>5.37</v>
+      </c>
+      <c r="D135" s="2">
+        <v>6.86</v>
+      </c>
+      <c r="E135" s="2">
+        <v>7.32</v>
+      </c>
+      <c r="F135" s="2">
+        <v>7.38</v>
+      </c>
+      <c r="G135" s="2">
+        <v>8.08</v>
+      </c>
+      <c r="H135" s="2">
+        <v>8.14</v>
+      </c>
+      <c r="I135" s="2">
+        <v>8.5299999999999994</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
+      <c r="A136" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B136" s="2">
+        <v>0.54</v>
+      </c>
+      <c r="C136" s="2">
+        <v>0.96</v>
+      </c>
+      <c r="D136" s="2">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="E136" s="2">
+        <v>1.39</v>
+      </c>
+      <c r="F136" s="2">
+        <v>1.47</v>
+      </c>
+      <c r="G136" s="2">
+        <v>1.57</v>
+      </c>
+      <c r="H136" s="2">
+        <v>1.54</v>
+      </c>
+      <c r="I136" s="2">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
+      <c r="A137" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B137" s="2">
+        <v>5.4</v>
+      </c>
+      <c r="C137" s="2">
+        <v>6.73</v>
+      </c>
+      <c r="D137" s="2">
+        <v>8.14</v>
+      </c>
+      <c r="E137" s="2">
+        <v>6.56</v>
+      </c>
+      <c r="F137" s="2">
+        <v>6.93</v>
+      </c>
+      <c r="G137" s="2">
+        <v>7.72</v>
+      </c>
+      <c r="H137" s="2">
+        <v>8.11</v>
+      </c>
+      <c r="I137" s="2">
+        <v>8.57</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
+      <c r="A138" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B138" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="C138" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="D138" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="E138" s="2">
+        <v>0.11</v>
+      </c>
+      <c r="F138" s="2">
+        <v>0.11</v>
+      </c>
+      <c r="G138" s="2">
+        <v>0.11</v>
+      </c>
+      <c r="H138" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="I138" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
+      <c r="A139" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B139" s="2">
+        <v>0.72</v>
+      </c>
+      <c r="C139" s="2">
+        <v>0.74</v>
+      </c>
+      <c r="D139" s="2">
+        <v>0.66</v>
+      </c>
+      <c r="E139" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F139" s="2">
+        <v>0.49</v>
+      </c>
+      <c r="G139" s="2">
+        <v>0.45</v>
+      </c>
+      <c r="H139" s="2">
+        <v>0.45</v>
+      </c>
+      <c r="I139" s="2">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
+      <c r="A140" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B140" s="2">
+        <v>0.47</v>
+      </c>
+      <c r="C140" s="2">
+        <v>0.74</v>
+      </c>
+      <c r="D140" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="E140" s="2">
+        <v>0.83</v>
+      </c>
+      <c r="F140" s="2">
+        <v>0.84</v>
+      </c>
+      <c r="G140" s="2">
+        <v>0.84</v>
+      </c>
+      <c r="H140" s="2">
+        <v>0.86</v>
+      </c>
+      <c r="I140" s="2">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
+      <c r="A141" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B141" s="2">
+        <v>10.41</v>
+      </c>
+      <c r="C141" s="2">
+        <v>10.53</v>
+      </c>
+      <c r="D141" s="2">
+        <v>10.63</v>
+      </c>
+      <c r="E141" s="2">
+        <v>10.6</v>
+      </c>
+      <c r="F141" s="2">
+        <v>9.74</v>
+      </c>
+      <c r="G141" s="2">
+        <v>9.16</v>
+      </c>
+      <c r="H141" s="2">
+        <v>9.51</v>
+      </c>
+      <c r="I141" s="2">
+        <v>9.61</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
+      <c r="A142" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B142" s="2">
+        <v>8.4499999999999993</v>
+      </c>
+      <c r="C142" s="2">
+        <v>9.19</v>
+      </c>
+      <c r="D142" s="2">
+        <v>9.2200000000000006</v>
+      </c>
+      <c r="E142" s="2">
+        <v>9.27</v>
+      </c>
+      <c r="F142" s="2">
+        <v>8.51</v>
+      </c>
+      <c r="G142" s="2">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="H142" s="2">
+        <v>8.2899999999999991</v>
+      </c>
+      <c r="I142" s="2">
+        <v>8.2799999999999994</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
+      <c r="A143" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B143" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="C143" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D143" s="2">
+        <v>0.13</v>
+      </c>
+      <c r="E143" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="F143" s="2">
+        <v>0.22</v>
+      </c>
+      <c r="G143" s="2">
+        <v>0.26</v>
+      </c>
+      <c r="H143" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="I143" s="2">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
+      <c r="A144" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B144" s="2">
+        <v>6.98</v>
+      </c>
+      <c r="C144" s="2">
+        <v>8.58</v>
+      </c>
+      <c r="D144" s="2">
+        <v>8.82</v>
+      </c>
+      <c r="E144" s="2">
+        <v>7.7</v>
+      </c>
+      <c r="F144" s="2">
+        <v>7.48</v>
+      </c>
+      <c r="G144" s="2">
+        <v>7.31</v>
+      </c>
+      <c r="H144" s="2">
+        <v>7.23</v>
+      </c>
+      <c r="I144" s="2">
+        <v>7.14</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
+      <c r="A145" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B145" s="2">
+        <v>8.2899999999999991</v>
+      </c>
+      <c r="C145" s="2">
+        <v>10.82</v>
+      </c>
+      <c r="D145" s="2">
+        <v>13.61</v>
+      </c>
+      <c r="E145" s="2">
+        <v>21.45</v>
+      </c>
+      <c r="F145" s="2">
+        <v>21.47</v>
+      </c>
+      <c r="G145" s="2">
+        <v>20.67</v>
+      </c>
+      <c r="H145" s="2">
+        <v>20.48</v>
+      </c>
+      <c r="I145" s="2">
+        <v>19.87</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
+      <c r="A146" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B146" s="2">
+        <v>0.59</v>
+      </c>
+      <c r="C146" s="2">
+        <v>0.78</v>
+      </c>
+      <c r="D146" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="E146" s="2">
+        <v>0.89</v>
+      </c>
+      <c r="F146" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="G146" s="2">
+        <v>0.84</v>
+      </c>
+      <c r="H146" s="2">
+        <v>0.86</v>
+      </c>
+      <c r="I146" s="2">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
+      <c r="A147" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B147" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C147" s="2">
+        <v>1.71</v>
+      </c>
+      <c r="D147" s="2">
+        <v>2.15</v>
+      </c>
+      <c r="E147" s="2">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="F147" s="2">
+        <v>2.73</v>
+      </c>
+      <c r="G147" s="2">
+        <v>2.81</v>
+      </c>
+      <c r="H147" s="2">
+        <v>2.85</v>
+      </c>
+      <c r="I147" s="2">
+        <v>2.88</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
+      <c r="A148" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B148" s="2">
+        <v>0.95</v>
+      </c>
+      <c r="C148" s="2">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="D148" s="2">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="E148" s="2">
+        <v>1.52</v>
+      </c>
+      <c r="F148" s="2">
+        <v>1.59</v>
+      </c>
+      <c r="G148" s="2">
+        <v>1.68</v>
+      </c>
+      <c r="H148" s="2">
+        <v>1.7</v>
+      </c>
+      <c r="I148" s="2">
+        <v>1.81</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
+      <c r="A149" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B149" s="2">
+        <v>0.67</v>
+      </c>
+      <c r="C149" s="2">
+        <v>0.96</v>
+      </c>
+      <c r="D149" s="2">
+        <v>0.94</v>
+      </c>
+      <c r="E149" s="2">
+        <v>0.91</v>
+      </c>
+      <c r="F149" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="G149" s="2">
+        <v>1.03</v>
+      </c>
+      <c r="H149" s="2">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="I149" s="2">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
+      <c r="A150" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B150" s="2">
+        <v>0.64</v>
+      </c>
+      <c r="C150" s="2">
+        <v>1.63</v>
+      </c>
+      <c r="D150" s="2">
+        <v>1.34</v>
+      </c>
+      <c r="E150" s="2">
+        <v>1.57</v>
+      </c>
+      <c r="F150" s="2">
+        <v>1.51</v>
+      </c>
+      <c r="G150" s="2">
+        <v>1.72</v>
+      </c>
+      <c r="H150" s="2">
+        <v>1.83</v>
+      </c>
+      <c r="I150" s="2">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
+      <c r="A151" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B151" s="2">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="C151" s="2">
+        <v>0.52</v>
+      </c>
+      <c r="D151" s="2">
+        <v>0.79</v>
+      </c>
+      <c r="E151" s="2">
+        <v>0.87</v>
+      </c>
+      <c r="F151" s="2">
+        <v>0.93</v>
+      </c>
+      <c r="G151" s="2">
+        <v>1.03</v>
+      </c>
+      <c r="H151" s="2">
+        <v>1.07</v>
+      </c>
+      <c r="I151" s="2">
+        <v>1.1200000000000001</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
+      <c r="A152" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B152" s="2">
+        <v>9.44</v>
+      </c>
+      <c r="C152" s="2">
+        <v>8.02</v>
+      </c>
+      <c r="D152" s="2">
+        <v>7.99</v>
+      </c>
+      <c r="E152" s="2">
+        <v>8.41</v>
+      </c>
+      <c r="F152" s="2">
+        <v>7.98</v>
+      </c>
+      <c r="G152" s="2">
+        <v>7.54</v>
+      </c>
+      <c r="H152" s="2">
+        <v>7.54</v>
+      </c>
+      <c r="I152" s="2">
+        <v>7.77</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
+      <c r="A153" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B153" s="2">
+        <v>0.23</v>
+      </c>
+      <c r="C153" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="D153" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="E153" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="F153" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="G153" s="2">
+        <v>0.19</v>
+      </c>
+      <c r="H153" s="2">
+        <v>0.19</v>
+      </c>
+      <c r="I153" s="2">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
+      <c r="A154" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B154" s="2">
+        <v>6.45</v>
+      </c>
+      <c r="C154" s="2">
+        <v>3.21</v>
+      </c>
+      <c r="D154" s="2">
+        <v>3.32</v>
+      </c>
+      <c r="E154" s="2">
+        <v>2.8</v>
+      </c>
+      <c r="F154" s="2">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G154" s="2">
+        <v>1.87</v>
+      </c>
+      <c r="H154" s="2">
+        <v>1.95</v>
+      </c>
+      <c r="I154" s="2">
+        <v>2.31</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
+      <c r="A155" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B155" s="2">
+        <v>4.26</v>
+      </c>
+      <c r="C155" s="2">
+        <v>6.12</v>
+      </c>
+      <c r="D155" s="2">
+        <v>6.3</v>
+      </c>
+      <c r="E155" s="2">
+        <v>4.88</v>
+      </c>
+      <c r="F155" s="2">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G155" s="2">
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="H155" s="2">
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="I155" s="2">
+        <v>4.82</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
+      <c r="A156" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B156" s="2">
+        <v>0.51</v>
+      </c>
+      <c r="C156" s="2">
+        <v>0.68</v>
+      </c>
+      <c r="D156" s="2">
+        <v>0.65</v>
+      </c>
+      <c r="E156" s="2">
+        <v>0.81</v>
+      </c>
+      <c r="F156" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="G156" s="2">
+        <v>0.86</v>
+      </c>
+      <c r="H156" s="2">
+        <v>0.89</v>
+      </c>
+      <c r="I156" s="2">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
+      <c r="A157" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B157" s="2">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="C157" s="2">
+        <v>1.89</v>
+      </c>
+      <c r="D157" s="2">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="E157" s="2">
+        <v>2.54</v>
+      </c>
+      <c r="F157" s="2">
+        <v>2.78</v>
+      </c>
+      <c r="G157" s="2">
+        <v>3.18</v>
+      </c>
+      <c r="H157" s="2">
+        <v>3.37</v>
+      </c>
+      <c r="I157" s="2">
+        <v>3.58</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
+      <c r="A158" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B158" s="2">
+        <v>35.29</v>
+      </c>
+      <c r="C158" s="2">
+        <v>52.69</v>
+      </c>
+      <c r="D158" s="2">
+        <v>50.08</v>
+      </c>
+      <c r="E158" s="2">
+        <v>40.82</v>
+      </c>
+      <c r="F158" s="2">
+        <v>39.35</v>
+      </c>
+      <c r="G158" s="2">
+        <v>38.47</v>
+      </c>
+      <c r="H158" s="2">
+        <v>39.22</v>
+      </c>
+      <c r="I158" s="2">
+        <v>38.520000000000003</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
+      <c r="A159" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B159" s="2">
+        <v>0.89</v>
+      </c>
+      <c r="C159" s="2">
+        <v>1.08</v>
+      </c>
+      <c r="D159" s="2">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="E159" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="F159" s="2">
+        <v>1.25</v>
+      </c>
+      <c r="G159" s="2">
+        <v>1.29</v>
+      </c>
+      <c r="H159" s="2">
+        <v>1.27</v>
+      </c>
+      <c r="I159" s="2">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
+      <c r="A160" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B160" s="2">
+        <v>7.93</v>
+      </c>
+      <c r="C160" s="2">
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="D160" s="2">
+        <v>4.88</v>
+      </c>
+      <c r="E160" s="2">
+        <v>4.04</v>
+      </c>
+      <c r="F160" s="2">
+        <v>4.42</v>
+      </c>
+      <c r="G160" s="2">
+        <v>3.94</v>
+      </c>
+      <c r="H160" s="2">
+        <v>3.89</v>
+      </c>
+      <c r="I160" s="2">
+        <v>3.98</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
+      <c r="A161" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B161" s="2">
+        <v>16.079999999999998</v>
+      </c>
+      <c r="C161" s="2">
+        <v>11.39</v>
+      </c>
+      <c r="D161" s="2">
+        <v>11.92</v>
+      </c>
+      <c r="E161" s="2">
+        <v>12.04</v>
+      </c>
+      <c r="F161" s="2">
+        <v>12.63</v>
+      </c>
+      <c r="G161" s="2">
+        <v>11.9</v>
+      </c>
+      <c r="H161" s="2">
+        <v>11.79</v>
+      </c>
+      <c r="I161" s="2">
+        <v>11.54</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
+      <c r="A162" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B162" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="C162" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="D162" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="E162" s="2">
+        <v>0.11</v>
+      </c>
+      <c r="F162" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="G162" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="H162" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="I162" s="2">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
+      <c r="A163" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B163" s="2">
+        <v>10.3</v>
+      </c>
+      <c r="C163" s="2">
+        <v>12.55</v>
+      </c>
+      <c r="D163" s="2">
+        <v>12.83</v>
+      </c>
+      <c r="E163" s="2">
+        <v>15.38</v>
+      </c>
+      <c r="F163" s="2">
+        <v>15.59</v>
+      </c>
+      <c r="G163" s="2">
+        <v>16.07</v>
+      </c>
+      <c r="H163" s="2">
+        <v>16.21</v>
+      </c>
+      <c r="I163" s="2">
+        <v>16.010000000000002</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
+      <c r="A164" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B164" s="2">
+        <v>0.21</v>
+      </c>
+      <c r="C164" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="D164" s="2">
+        <v>0.26</v>
+      </c>
+      <c r="E164" s="2">
+        <v>0.36</v>
+      </c>
+      <c r="F164" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="G164" s="2">
+        <v>0.33</v>
+      </c>
+      <c r="H164" s="2">
+        <v>0.33</v>
+      </c>
+      <c r="I164" s="2">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
+      <c r="A165" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B165" s="2">
+        <v>0.31</v>
+      </c>
+      <c r="C165" s="2">
+        <v>0.41</v>
+      </c>
+      <c r="D165" s="2">
+        <v>0.51</v>
+      </c>
+      <c r="E165" s="2">
+        <v>0.53</v>
+      </c>
+      <c r="F165" s="2">
+        <v>0.54</v>
+      </c>
+      <c r="G165" s="2">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H165" s="2">
+        <v>0.53</v>
+      </c>
+      <c r="I165" s="2">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
+      <c r="A166" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B166" s="2">
+        <v>10.1</v>
+      </c>
+      <c r="C166" s="2">
+        <v>12.49</v>
+      </c>
+      <c r="D166" s="2">
+        <v>9.01</v>
+      </c>
+      <c r="E166" s="2">
+        <v>9</v>
+      </c>
+      <c r="F166" s="2">
+        <v>8.51</v>
+      </c>
+      <c r="G166" s="2">
+        <v>8.09</v>
+      </c>
+      <c r="H166" s="2">
+        <v>8.52</v>
+      </c>
+      <c r="I166" s="2">
+        <v>8.61</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
+      <c r="A167" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B167" s="2">
+        <v>1.72</v>
+      </c>
+      <c r="C167" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D167" s="2">
+        <v>2.27</v>
+      </c>
+      <c r="E167" s="2">
+        <v>2.75</v>
+      </c>
+      <c r="F167" s="2">
+        <v>2.96</v>
+      </c>
+      <c r="G167" s="2">
+        <v>3.13</v>
+      </c>
+      <c r="H167" s="2">
+        <v>3.17</v>
+      </c>
+      <c r="I167" s="2">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
+      <c r="A168" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B168" s="2">
+        <v>0.36</v>
+      </c>
+      <c r="C168" s="2">
+        <v>0.34</v>
+      </c>
+      <c r="D168" s="2">
+        <v>0.33</v>
+      </c>
+      <c r="E168" s="2">
+        <v>0.43</v>
+      </c>
+      <c r="F168" s="2">
+        <v>0.47</v>
+      </c>
+      <c r="G168" s="2">
+        <v>0.52</v>
+      </c>
+      <c r="H168" s="2">
+        <v>0.54</v>
+      </c>
+      <c r="I168" s="2">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
+      <c r="A169" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B169" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="C169" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="D169" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="E169" s="2">
+        <v>0.17</v>
+      </c>
+      <c r="F169" s="2">
+        <v>0.17</v>
+      </c>
+      <c r="G169" s="2">
+        <v>0.17</v>
+      </c>
+      <c r="H169" s="2">
+        <v>0.17</v>
+      </c>
+      <c r="I169" s="2">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
+      <c r="A170" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B170" s="2">
+        <v>0.49</v>
+      </c>
+      <c r="C170" s="2">
+        <v>0.98</v>
+      </c>
+      <c r="D170" s="2">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="E170" s="2">
+        <v>1.08</v>
+      </c>
+      <c r="F170" s="2">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="G170" s="2">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="H170" s="2">
+        <v>1.08</v>
+      </c>
+      <c r="I170" s="2">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
+      <c r="A171" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B171" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="C171" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="D171" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="E171" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="F171" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="G171" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="H171" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="I171" s="2">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
+      <c r="A172" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B172" s="2">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="C172" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D172" s="2">
+        <v>1.06</v>
+      </c>
+      <c r="E172" s="2">
+        <v>1.18</v>
+      </c>
+      <c r="F172" s="2">
+        <v>1.19</v>
+      </c>
+      <c r="G172" s="2">
+        <v>1.33</v>
+      </c>
+      <c r="H172" s="2">
+        <v>1.38</v>
+      </c>
+      <c r="I172" s="2">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
+      <c r="A173" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B173" s="2">
+        <v>6.55</v>
+      </c>
+      <c r="C173" s="2">
+        <v>5.01</v>
+      </c>
+      <c r="D173" s="2">
+        <v>6.18</v>
+      </c>
+      <c r="E173" s="2">
+        <v>6.04</v>
+      </c>
+      <c r="F173" s="2">
+        <v>6.47</v>
+      </c>
+      <c r="G173" s="2">
+        <v>5.63</v>
+      </c>
+      <c r="H173" s="2">
+        <v>5.92</v>
+      </c>
+      <c r="I173" s="2">
+        <v>6.08</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
+      <c r="A174" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B174" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="C174" s="2">
+        <v>0.24</v>
+      </c>
+      <c r="D174" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="E174" s="2">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="F174" s="2">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="G174" s="2">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="H174" s="2">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="I174" s="2">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
+      <c r="A175" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B175" s="2">
+        <v>4.05</v>
+      </c>
+      <c r="C175" s="2">
+        <v>3.61</v>
+      </c>
+      <c r="D175" s="2">
+        <v>3.65</v>
+      </c>
+      <c r="E175" s="2">
+        <v>3.78</v>
+      </c>
+      <c r="F175" s="2">
+        <v>4.01</v>
+      </c>
+      <c r="G175" s="2">
+        <v>3.9</v>
+      </c>
+      <c r="H175" s="2">
+        <v>3.88</v>
+      </c>
+      <c r="I175" s="2">
+        <v>3.86</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
+      <c r="A176" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B176" s="2">
+        <v>11.46</v>
+      </c>
+      <c r="C176" s="2">
+        <v>7.95</v>
+      </c>
+      <c r="D176" s="2">
+        <v>7.94</v>
+      </c>
+      <c r="E176" s="2">
+        <v>7.59</v>
+      </c>
+      <c r="F176" s="2">
+        <v>6.98</v>
+      </c>
+      <c r="G176" s="2">
+        <v>6.62</v>
+      </c>
+      <c r="H176" s="2">
+        <v>6.65</v>
+      </c>
+      <c r="I176" s="2">
+        <v>6.77</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9">
+      <c r="A177" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B177" s="2">
+        <v>7.65</v>
+      </c>
+      <c r="C177" s="2">
+        <v>7.92</v>
+      </c>
+      <c r="D177" s="2">
+        <v>8.85</v>
+      </c>
+      <c r="E177" s="2">
+        <v>8.3800000000000008</v>
+      </c>
+      <c r="F177" s="2">
+        <v>7.77</v>
+      </c>
+      <c r="G177" s="2">
+        <v>6.74</v>
+      </c>
+      <c r="H177" s="2">
+        <v>6.95</v>
+      </c>
+      <c r="I177" s="2">
+        <v>7.08</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
+      <c r="A178" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B178" s="2">
+        <v>6.61</v>
+      </c>
+      <c r="C178" s="2">
+        <v>6.47</v>
+      </c>
+      <c r="D178" s="2">
+        <v>6.04</v>
+      </c>
+      <c r="E178" s="2">
+        <v>5.52</v>
+      </c>
+      <c r="F178" s="2">
+        <v>4.79</v>
+      </c>
+      <c r="G178" s="2">
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="H178" s="2">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="I178" s="2">
+        <v>4.54</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
+      <c r="A179" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B179" s="2">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="C179" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="D179" s="2">
+        <v>0.41</v>
+      </c>
+      <c r="E179" s="2">
+        <v>0.48</v>
+      </c>
+      <c r="F179" s="2">
+        <v>0.49</v>
+      </c>
+      <c r="G179" s="2">
+        <v>0.49</v>
+      </c>
+      <c r="H179" s="2">
+        <v>0.49</v>
+      </c>
+      <c r="I179" s="2">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9">
+      <c r="A180" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B180" s="2">
+        <v>2.66</v>
+      </c>
+      <c r="C180" s="2">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="D180" s="2">
+        <v>3.56</v>
+      </c>
+      <c r="E180" s="2">
+        <v>5.03</v>
+      </c>
+      <c r="F180" s="2">
+        <v>5.22</v>
+      </c>
+      <c r="G180" s="2">
+        <v>5.38</v>
+      </c>
+      <c r="H180" s="2">
+        <v>5.4</v>
+      </c>
+      <c r="I180" s="2">
+        <v>5.52</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9">
+      <c r="A181" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B181" s="2">
+        <v>2.61</v>
+      </c>
+      <c r="C181" s="2">
+        <v>2.78</v>
+      </c>
+      <c r="D181" s="2">
+        <v>3.19</v>
+      </c>
+      <c r="E181" s="2">
+        <v>2.92</v>
+      </c>
+      <c r="F181" s="2">
+        <v>2.58</v>
+      </c>
+      <c r="G181" s="2">
+        <v>1.93</v>
+      </c>
+      <c r="H181" s="2">
+        <v>2</v>
+      </c>
+      <c r="I181" s="2">
+        <v>2.0699999999999998</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9">
+      <c r="A182" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B182" s="2">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="C182" s="2">
+        <v>1.25</v>
+      </c>
+      <c r="D182" s="2">
+        <v>1.34</v>
+      </c>
+      <c r="E182" s="2">
+        <v>1.78</v>
+      </c>
+      <c r="F182" s="2">
+        <v>1.71</v>
+      </c>
+      <c r="G182" s="2">
+        <v>1.84</v>
+      </c>
+      <c r="H182" s="2">
+        <v>1.88</v>
+      </c>
+      <c r="I182" s="2">
+        <v>1.88</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9">
+      <c r="A183" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B183" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C183" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="D183" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="E183" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="F183" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="G183" s="2">
+        <v>0.11</v>
+      </c>
+      <c r="H183" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="I183" s="2">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9">
+      <c r="A184" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B184" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="C184" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="D184" s="2">
+        <v>0.23</v>
+      </c>
+      <c r="E184" s="2">
+        <v>0.27</v>
+      </c>
+      <c r="F184" s="2">
+        <v>0.32</v>
+      </c>
+      <c r="G184" s="2">
+        <v>0.31</v>
+      </c>
+      <c r="H184" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="I184" s="2">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9">
+      <c r="A185" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B185" s="2">
+        <v>1.63</v>
+      </c>
+      <c r="C185" s="2">
+        <v>2.7</v>
+      </c>
+      <c r="D185" s="2">
+        <v>3.44</v>
+      </c>
+      <c r="E185" s="2">
+        <v>3.61</v>
+      </c>
+      <c r="F185" s="2">
+        <v>3.8</v>
+      </c>
+      <c r="G185" s="2">
+        <v>3.84</v>
+      </c>
+      <c r="H185" s="2">
+        <v>3.88</v>
+      </c>
+      <c r="I185" s="2">
+        <v>3.93</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9">
+      <c r="A186" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B186" s="2">
+        <v>2.31</v>
+      </c>
+      <c r="C186" s="2">
+        <v>0.44</v>
+      </c>
+      <c r="D186" s="2">
+        <v>0.46</v>
+      </c>
+      <c r="E186" s="2">
+        <v>0.47</v>
+      </c>
+      <c r="F186" s="2">
+        <v>0.45</v>
+      </c>
+      <c r="G186" s="2">
+        <v>0.67</v>
+      </c>
+      <c r="H186" s="2">
+        <v>0.68</v>
+      </c>
+      <c r="I186" s="2">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9">
+      <c r="A187" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B187" s="2">
+        <v>12.4</v>
+      </c>
+      <c r="C187" s="2">
+        <v>8.65</v>
+      </c>
+      <c r="D187" s="2">
+        <v>11.01</v>
+      </c>
+      <c r="E187" s="2">
+        <v>12.13</v>
+      </c>
+      <c r="F187" s="2">
+        <v>13.12</v>
+      </c>
+      <c r="G187" s="2">
+        <v>13.04</v>
+      </c>
+      <c r="H187" s="2">
+        <v>14.14</v>
+      </c>
+      <c r="I187" s="2">
+        <v>14.01</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9">
+      <c r="A188" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B188" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="C188" s="2">
+        <v>0.31</v>
+      </c>
+      <c r="D188" s="2">
+        <v>0.22</v>
+      </c>
+      <c r="E188" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="F188" s="2">
+        <v>0.48</v>
+      </c>
+      <c r="G188" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="H188" s="2">
+        <v>0.38</v>
+      </c>
+      <c r="I188" s="2">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9">
+      <c r="A189" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B189" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="C189" s="2">
+        <v>1.86</v>
+      </c>
+      <c r="D189" s="2">
+        <v>1.54</v>
+      </c>
+      <c r="E189" s="2">
+        <v>1.79</v>
+      </c>
+      <c r="F189" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="G189" s="2">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="H189" s="2">
+        <v>2.21</v>
+      </c>
+      <c r="I189" s="2">
+        <v>2.35</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9">
+      <c r="A190" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B190" s="2">
+        <v>10.39</v>
+      </c>
+      <c r="C190" s="2">
+        <v>17.3</v>
+      </c>
+      <c r="D190" s="2">
+        <v>26.47</v>
+      </c>
+      <c r="E190" s="2">
+        <v>30.97</v>
+      </c>
+      <c r="F190" s="2">
+        <v>25.49</v>
+      </c>
+      <c r="G190" s="2">
+        <v>27.26</v>
+      </c>
+      <c r="H190" s="2">
+        <v>27.34</v>
+      </c>
+      <c r="I190" s="2">
+        <v>25.72</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9">
+      <c r="A191" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B191" s="2">
+        <v>1.78</v>
+      </c>
+      <c r="C191" s="2">
+        <v>2.17</v>
+      </c>
+      <c r="D191" s="2">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E191" s="2">
+        <v>2.42</v>
+      </c>
+      <c r="F191" s="2">
+        <v>2.33</v>
+      </c>
+      <c r="G191" s="2">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="H191" s="2">
+        <v>2.58</v>
+      </c>
+      <c r="I191" s="2">
+        <v>2.58</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9">
+      <c r="A192" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B192" s="2">
+        <v>2.77</v>
+      </c>
+      <c r="C192" s="2">
+        <v>3.59</v>
+      </c>
+      <c r="D192" s="2">
+        <v>3.62</v>
+      </c>
+      <c r="E192" s="2">
+        <v>4.26</v>
+      </c>
+      <c r="F192" s="2">
+        <v>4.53</v>
+      </c>
+      <c r="G192" s="2">
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="H192" s="2">
+        <v>4.47</v>
+      </c>
+      <c r="I192" s="2">
+        <v>4.63</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9">
+      <c r="A193" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B193" s="2">
+        <v>6.16</v>
+      </c>
+      <c r="C193" s="2">
+        <v>10.59</v>
+      </c>
+      <c r="D193" s="2">
+        <v>11.97</v>
+      </c>
+      <c r="E193" s="2">
+        <v>11.79</v>
+      </c>
+      <c r="F193" s="2">
+        <v>11.67</v>
+      </c>
+      <c r="G193" s="2">
+        <v>11.75</v>
+      </c>
+      <c r="H193" s="2">
+        <v>11.56</v>
+      </c>
+      <c r="I193" s="2">
+        <v>11.73</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9">
+      <c r="A194" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B194" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="C194" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="D194" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E194" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F194" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="G194" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="H194" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="I194" s="2">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9">
+      <c r="A195" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B195" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="C195" s="2">
+        <v>0.11</v>
+      </c>
+      <c r="D195" s="2">
+        <v>0.11</v>
+      </c>
+      <c r="E195" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="F195" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="G195" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="H195" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="I195" s="2">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9">
+      <c r="A196" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B196" s="2">
+        <v>15.3</v>
+      </c>
+      <c r="C196" s="2">
+        <v>7.33</v>
+      </c>
+      <c r="D196" s="2">
+        <v>7.52</v>
+      </c>
+      <c r="E196" s="2">
+        <v>6.75</v>
+      </c>
+      <c r="F196" s="2">
+        <v>6.94</v>
+      </c>
+      <c r="G196" s="2">
+        <v>5.97</v>
+      </c>
+      <c r="H196" s="2">
+        <v>4.83</v>
+      </c>
+      <c r="I196" s="2">
+        <v>5.25</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9">
+      <c r="A197" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B197" s="2">
+        <v>1.24</v>
+      </c>
+      <c r="C197" s="2">
+        <v>1.63</v>
+      </c>
+      <c r="D197" s="2">
+        <v>1.64</v>
+      </c>
+      <c r="E197" s="2">
+        <v>1.95</v>
+      </c>
+      <c r="F197" s="2">
+        <v>2.35</v>
+      </c>
+      <c r="G197" s="2">
+        <v>1.79</v>
+      </c>
+      <c r="H197" s="2">
+        <v>1.86</v>
+      </c>
+      <c r="I197" s="2">
+        <v>1.89</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9">
+      <c r="A198" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B198" s="2">
+        <v>19.59</v>
+      </c>
+      <c r="C198" s="2">
+        <v>20.6</v>
+      </c>
+      <c r="D198" s="2">
+        <v>19.75</v>
+      </c>
+      <c r="E198" s="2">
+        <v>17.670000000000002</v>
+      </c>
+      <c r="F198" s="2">
+        <v>16.309999999999999</v>
+      </c>
+      <c r="G198" s="2">
+        <v>16.54</v>
+      </c>
+      <c r="H198" s="2">
+        <v>15.98</v>
+      </c>
+      <c r="I198" s="2">
+        <v>15.56</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9">
+      <c r="A199" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B199" s="2">
+        <v>5.98</v>
+      </c>
+      <c r="C199" s="2">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="D199" s="2">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="E199" s="2">
+        <v>3.74</v>
+      </c>
+      <c r="F199" s="2">
+        <v>3.95</v>
+      </c>
+      <c r="G199" s="2">
+        <v>3.47</v>
+      </c>
+      <c r="H199" s="2">
+        <v>3.47</v>
+      </c>
+      <c r="I199" s="2">
+        <v>3.48</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9">
+      <c r="A200" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B200" s="2">
+        <v>1.29</v>
+      </c>
+      <c r="C200" s="2">
+        <v>2.23</v>
+      </c>
+      <c r="D200" s="2">
+        <v>2.35</v>
+      </c>
+      <c r="E200" s="2">
+        <v>2.71</v>
+      </c>
+      <c r="F200" s="2">
+        <v>2.82</v>
+      </c>
+      <c r="G200" s="2">
+        <v>3.15</v>
+      </c>
+      <c r="H200" s="2">
+        <v>3.28</v>
+      </c>
+      <c r="I200" s="2">
+        <v>3.29</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9">
+      <c r="A201" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B201" s="2">
+        <v>5.55</v>
+      </c>
+      <c r="C201" s="2">
+        <v>5.75</v>
+      </c>
+      <c r="D201" s="2">
+        <v>6.02</v>
+      </c>
+      <c r="E201" s="2">
+        <v>6.76</v>
+      </c>
+      <c r="F201" s="2">
+        <v>6.57</v>
+      </c>
+      <c r="G201" s="2">
+        <v>6.06</v>
+      </c>
+      <c r="H201" s="2">
+        <v>5.75</v>
+      </c>
+      <c r="I201" s="2">
+        <v>5.57</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9">
+      <c r="A202" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B202" s="2">
+        <v>2.8</v>
+      </c>
+      <c r="C202" s="2">
+        <v>2.63</v>
+      </c>
+      <c r="D202" s="2">
+        <v>2.75</v>
+      </c>
+      <c r="E202" s="2">
+        <v>2.98</v>
+      </c>
+      <c r="F202" s="2">
+        <v>2.97</v>
+      </c>
+      <c r="G202" s="2">
+        <v>3.19</v>
+      </c>
+      <c r="H202" s="2">
+        <v>3.26</v>
+      </c>
+      <c r="I202" s="2">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9">
+      <c r="A203" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B203" s="2">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="C203" s="2">
+        <v>0.68</v>
+      </c>
+      <c r="D203" s="2">
+        <v>1.17</v>
+      </c>
+      <c r="E203" s="2">
+        <v>1.74</v>
+      </c>
+      <c r="F203" s="2">
+        <v>1.82</v>
+      </c>
+      <c r="G203" s="2">
+        <v>2.02</v>
+      </c>
+      <c r="H203" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I203" s="2">
+        <v>2.1800000000000002</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9">
+      <c r="A204" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B204" s="2">
+        <v>0.43</v>
+      </c>
+      <c r="C204" s="2">
+        <v>0.33</v>
+      </c>
+      <c r="D204" s="2">
+        <v>0.31</v>
+      </c>
+      <c r="E204" s="2">
+        <v>0.38</v>
+      </c>
+      <c r="F204" s="2">
+        <v>0.42</v>
+      </c>
+      <c r="G204" s="2">
+        <v>0.46</v>
+      </c>
+      <c r="H204" s="2">
+        <v>0.48</v>
+      </c>
+      <c r="I204" s="2">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9">
+      <c r="A205" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B205" s="2">
+        <v>0.59</v>
+      </c>
+      <c r="C205" s="2">
+        <v>0.74</v>
+      </c>
+      <c r="D205" s="2">
+        <v>0.63</v>
+      </c>
+      <c r="E205" s="2">
+        <v>0.62</v>
+      </c>
+      <c r="F205" s="2">
+        <v>0.68</v>
+      </c>
+      <c r="G205" s="2">
+        <v>0.77</v>
+      </c>
+      <c r="H205" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="I205" s="2">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9">
+      <c r="A206" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B206" s="2">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="C206" s="2">
+        <v>0.86</v>
+      </c>
+      <c r="D206" s="2">
+        <v>1.04</v>
+      </c>
+      <c r="E206" s="2">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="F206" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="G206" s="2">
+        <v>1.02</v>
+      </c>
+      <c r="H206" s="2">
+        <v>0.94</v>
+      </c>
+      <c r="I206" s="2">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9">
+      <c r="A207" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B207" s="2">
+        <v>7.14</v>
+      </c>
+      <c r="C207" s="2">
+        <v>6.72</v>
+      </c>
+      <c r="D207" s="2">
+        <v>7.61</v>
+      </c>
+      <c r="E207" s="2">
+        <v>7.85</v>
+      </c>
+      <c r="F207" s="2">
+        <v>7.25</v>
+      </c>
+      <c r="G207" s="2">
+        <v>7.49</v>
+      </c>
+      <c r="H207" s="2">
+        <v>7.1</v>
+      </c>
+      <c r="I207" s="2">
+        <v>6.97</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9">
+      <c r="A208" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B208" s="2">
+        <v>0.36</v>
+      </c>
+      <c r="C208" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="D208" s="2">
+        <v>0.19</v>
+      </c>
+      <c r="E208" s="2">
+        <v>0.17</v>
+      </c>
+      <c r="F208" s="2">
+        <v>0.24</v>
+      </c>
+      <c r="G208" s="2">
+        <v>0.27</v>
+      </c>
+      <c r="H208" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="I208" s="2">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9">
+      <c r="A209" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B209" s="2">
+        <v>1.68</v>
+      </c>
+      <c r="C209" s="2">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="D209" s="2">
+        <v>0.88</v>
+      </c>
+      <c r="E209" s="2">
+        <v>0.68</v>
+      </c>
+      <c r="F209" s="2">
+        <v>0.73</v>
+      </c>
+      <c r="G209" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="H209" s="2">
+        <v>0.66</v>
+      </c>
+      <c r="I209" s="2">
+        <v>0.62</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A209" r:id="rId1" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/ZWE.pdf" xr:uid="{28F5A145-CD69-FA48-8064-8CB031511705}"/>
+    <hyperlink ref="A208" r:id="rId2" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/ZMB.pdf" xr:uid="{84CDB2E5-568D-3142-ADB5-F5ADD6D9E838}"/>
+    <hyperlink ref="A207" r:id="rId3" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/ZAF.pdf" xr:uid="{F445B3F1-FAE3-234E-AC94-19EE50259E4A}"/>
+    <hyperlink ref="A206" r:id="rId4" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/YEM.pdf" xr:uid="{4BF382A2-D62E-234D-A211-F148F81AF53E}"/>
+    <hyperlink ref="A205" r:id="rId5" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/WSM.pdf" xr:uid="{AA0A078B-53E7-E04E-8380-C00612B4B7BB}"/>
+    <hyperlink ref="A204" r:id="rId6" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/VUT.pdf" xr:uid="{F3905DF2-ABE8-7A45-900F-6F5AD333DBEF}"/>
+    <hyperlink ref="A203" r:id="rId7" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/VNM.pdf" xr:uid="{3C886ABF-A1CD-AD4C-93A9-995CF77C6567}"/>
+    <hyperlink ref="A202" r:id="rId8" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/VGB.pdf" xr:uid="{8AB5D0EA-4775-A84A-A5B3-B568A8C0C5C2}"/>
+    <hyperlink ref="A201" r:id="rId9" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/VEN.pdf" xr:uid="{5D408329-EFF3-3D4D-9F9F-184350968098}"/>
+    <hyperlink ref="A200" r:id="rId10" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/VCT.pdf" xr:uid="{2B71EB2E-2719-534B-A369-98FED24D7C20}"/>
+    <hyperlink ref="A199" r:id="rId11" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/UZB.pdf" xr:uid="{08DD7898-7EDC-B148-8DFF-654263AA0E92}"/>
+    <hyperlink ref="A198" r:id="rId12" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/USA.pdf" xr:uid="{CBCE40D9-5B16-3548-AEC3-F18B72B2E51D}"/>
+    <hyperlink ref="A197" r:id="rId13" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/URY.pdf" xr:uid="{50D67FF6-C302-5E45-A29C-5A997AFB077F}"/>
+    <hyperlink ref="A196" r:id="rId14" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/UKR.pdf" xr:uid="{43414C59-4B94-A64D-A849-4EB6F72501C6}"/>
+    <hyperlink ref="A195" r:id="rId15" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/UGA.pdf" xr:uid="{BCEC2E62-40D5-5040-8B2D-4D34A272E71E}"/>
+    <hyperlink ref="A194" r:id="rId16" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/TZA.pdf" xr:uid="{D1CDFB1F-138E-ED4B-9701-E25DEDF361D7}"/>
+    <hyperlink ref="A193" r:id="rId17" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/TWN.pdf" xr:uid="{31398D4E-7E70-024C-A494-FFEE9CECA723}"/>
+    <hyperlink ref="A192" r:id="rId18" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/TUR.pdf" xr:uid="{10B2220D-62F3-D045-A9D5-0B235A01A664}"/>
+    <hyperlink ref="A191" r:id="rId19" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/TUN.pdf" xr:uid="{3265A633-522B-6148-BC88-871711FAEA29}"/>
+    <hyperlink ref="A190" r:id="rId20" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/TTO.pdf" xr:uid="{A2C226BD-DCE1-2242-B7A0-E6DA05306C5B}"/>
+    <hyperlink ref="A189" r:id="rId21" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/TON.pdf" xr:uid="{5B0C09FC-3D2A-6744-9765-35876D388AF8}"/>
+    <hyperlink ref="A188" r:id="rId22" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/TLS.pdf" xr:uid="{39A3688D-57C5-DC4B-A7B5-526B2FBCF696}"/>
+    <hyperlink ref="A187" r:id="rId23" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/TKM.pdf" xr:uid="{9D0CB7AF-E309-2F49-A2CA-E2A05E03ED7D}"/>
+    <hyperlink ref="A186" r:id="rId24" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/TJK.pdf" xr:uid="{103DB612-D5D2-2647-AF5F-C23A58E6B900}"/>
+    <hyperlink ref="A185" r:id="rId25" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/THA.pdf" xr:uid="{9841D4A6-C634-134B-AC66-24DE9148FF1D}"/>
+    <hyperlink ref="A184" r:id="rId26" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/TGO.pdf" xr:uid="{1C218B80-F76D-9746-998B-A9E020CAAC3A}"/>
+    <hyperlink ref="A183" r:id="rId27" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/TCD.pdf" xr:uid="{8519E704-A83F-4841-9096-D2C4B47BFAAA}"/>
+    <hyperlink ref="A182" r:id="rId28" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/TCA.pdf" xr:uid="{98012850-7FC0-DB4B-8859-297D7627A621}"/>
+    <hyperlink ref="A181" r:id="rId29" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/SYR.pdf" xr:uid="{40E5845D-C960-E64F-8E0E-AE4F6C89E048}"/>
+    <hyperlink ref="A180" r:id="rId30" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/SYC.pdf" xr:uid="{CD93749C-13AF-B646-BE25-88BEC13067EA}"/>
+    <hyperlink ref="A179" r:id="rId31" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/SWZ.pdf" xr:uid="{72DB25FC-C674-2E4A-8996-C1F2FA298E9C}"/>
+    <hyperlink ref="A178" r:id="rId32" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/SWE.pdf" xr:uid="{ADAC6BC1-B9AB-4C46-9C31-6BC82EE56EA1}"/>
+    <hyperlink ref="A177" r:id="rId33" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/SVN.pdf" xr:uid="{AECCAA1E-F6AD-034A-B140-0D5DA1675676}"/>
+    <hyperlink ref="A176" r:id="rId34" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/SVK.pdf" xr:uid="{4C71721F-2031-4D42-9118-AA0D9199A97A}"/>
+    <hyperlink ref="A175" r:id="rId35" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/SUR.pdf" xr:uid="{DDF58F07-E9DA-F34B-BBE6-8C8DD78DCB8B}"/>
+    <hyperlink ref="A174" r:id="rId36" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/STP.pdf" xr:uid="{26F4A80D-67DE-C849-B60C-606660BBFAF8}"/>
+    <hyperlink ref="A173" r:id="rId37" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/SRB_MNE.pdf" xr:uid="{C5726191-89F7-B041-9601-4A86E377A925}"/>
+    <hyperlink ref="A172" r:id="rId38" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/SPM.pdf" xr:uid="{0AB5A244-B757-0144-868C-01F01DDEAF34}"/>
+    <hyperlink ref="A171" r:id="rId39" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/SOM.pdf" xr:uid="{00398950-734B-FC48-8CBE-403901EAB25B}"/>
+    <hyperlink ref="A170" r:id="rId40" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/SLV.pdf" xr:uid="{F53530F7-C5A6-FB4B-A31B-608D3C66C618}"/>
+    <hyperlink ref="A169" r:id="rId41" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/SLE.pdf" xr:uid="{8238CC48-62BB-D04F-8E1B-7FD4D02DF8C3}"/>
+    <hyperlink ref="A168" r:id="rId42" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/SLB.pdf" xr:uid="{9B84A61B-9F49-1F47-985C-7D854BB98301}"/>
+    <hyperlink ref="A167" r:id="rId43" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/SHN.pdf" xr:uid="{AF4E555B-8DE8-2B42-B6CE-BF7EE950AA9E}"/>
+    <hyperlink ref="A166" r:id="rId44" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/SGP.pdf" xr:uid="{1FB94040-5BB8-4A49-84AB-1B64C67D55BC}"/>
+    <hyperlink ref="A165" r:id="rId45" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/SEN.pdf" xr:uid="{246F9867-18FB-1F4B-8FF6-71639A62DB8E}"/>
+    <hyperlink ref="A164" r:id="rId46" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/SDN_SSD.pdf" xr:uid="{7F031DB0-7E6C-1548-85BE-99254B0E93AF}"/>
+    <hyperlink ref="A163" r:id="rId47" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/SAU.pdf" xr:uid="{1A679930-DF9E-7E4E-B410-660C65BDFD2D}"/>
+    <hyperlink ref="A162" r:id="rId48" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/RWA.pdf" xr:uid="{7C0FA3D5-7FAF-EE4E-BC4C-9FB250F18DC6}"/>
+    <hyperlink ref="A161" r:id="rId49" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/RUS.pdf" xr:uid="{65009045-39D2-794D-99A9-319CCA569BD3}"/>
+    <hyperlink ref="A160" r:id="rId50" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/ROU.pdf" xr:uid="{DFFDEC79-E57F-084A-91BC-56623CCD4B52}"/>
+    <hyperlink ref="A159" r:id="rId51" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/REU.pdf" xr:uid="{EA765E2D-26B3-EE4C-A6F6-071029B5B855}"/>
+    <hyperlink ref="A158" r:id="rId52" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/QAT.pdf" xr:uid="{1A7EB880-2227-A542-BD27-8123DCF212D4}"/>
+    <hyperlink ref="A157" r:id="rId53" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/PYF.pdf" xr:uid="{631A8763-AEF7-754C-8A1B-CA0376081011}"/>
+    <hyperlink ref="A156" r:id="rId54" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/PRY.pdf" xr:uid="{85503BD6-616D-FC4C-8BB2-37446FAF0CBC}"/>
+    <hyperlink ref="A155" r:id="rId55" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/PRT.pdf" xr:uid="{AFFF0AF2-4081-E940-B81F-439DB19A0CFB}"/>
+    <hyperlink ref="A154" r:id="rId56" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/PRK.pdf" xr:uid="{E892385E-5DA4-5F49-8C4D-474BF27AEC8E}"/>
+    <hyperlink ref="A153" r:id="rId57" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/PRI.pdf" xr:uid="{CC512A03-098D-0D40-988F-35AF7EB73C3B}"/>
+    <hyperlink ref="A152" r:id="rId58" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/POL.pdf" xr:uid="{75A144E7-0AEC-624C-AC51-E0FC8B5EF5E4}"/>
+    <hyperlink ref="A151" r:id="rId59" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/PNG.pdf" xr:uid="{01E99C5D-62AE-1A4F-807F-7748C150D6FF}"/>
+    <hyperlink ref="A150" r:id="rId60" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/PLW.pdf" xr:uid="{DC80015D-75CF-F249-B2A4-7C4F18EDC88F}"/>
+    <hyperlink ref="A149" r:id="rId61" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/PHL.pdf" xr:uid="{5584D6FD-2008-BE4A-8A75-4A7C9DE2FBF0}"/>
+    <hyperlink ref="A148" r:id="rId62" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/PER.pdf" xr:uid="{69AE2730-4C2A-9244-9133-9C536D65023F}"/>
+    <hyperlink ref="A147" r:id="rId63" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/PAN.pdf" xr:uid="{D84FCF2F-11EF-D94F-AB84-05C4413B17FF}"/>
+    <hyperlink ref="A146" r:id="rId64" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/PAK.pdf" xr:uid="{65AAFFBD-074A-C841-8E67-7634A5F61634}"/>
+    <hyperlink ref="A145" r:id="rId65" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/OMN.pdf" xr:uid="{101E1AF8-E3A7-4E46-ABFC-FA9308CB4BD7}"/>
+    <hyperlink ref="A144" r:id="rId66" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/NZL.pdf" xr:uid="{C1F2271D-7A57-3543-BF0E-9818B42F5E5F}"/>
+    <hyperlink ref="A143" r:id="rId67" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/NPL.pdf" xr:uid="{88C26BD4-61A5-114F-8A3E-3B4E33C9CEA5}"/>
+    <hyperlink ref="A142" r:id="rId68" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/NOR.pdf" xr:uid="{5924194B-4EE2-4E4E-84C2-C12A27D7D22D}"/>
+    <hyperlink ref="A141" r:id="rId69" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/NLD.pdf" xr:uid="{2867C770-9A2A-2249-A9A7-0741FB4235C5}"/>
+    <hyperlink ref="A140" r:id="rId70" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/NIC.pdf" xr:uid="{73D70073-1843-8B43-A983-37BEBBD0CD33}"/>
+    <hyperlink ref="A139" r:id="rId71" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/NGA.pdf" xr:uid="{E9B92C76-2603-284C-88DC-C11A71E3E5DE}"/>
+    <hyperlink ref="A138" r:id="rId72" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/NER.pdf" xr:uid="{E0830894-ECFD-854C-A1D5-5CC8F89CC02E}"/>
+    <hyperlink ref="A137" r:id="rId73" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/NCL.pdf" xr:uid="{26340155-3181-3147-BF0E-D75A20EC120C}"/>
+    <hyperlink ref="A136" r:id="rId74" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/NAM.pdf" xr:uid="{6A9DF7E8-2E43-2D4B-B38F-925650CA8005}"/>
+    <hyperlink ref="A135" r:id="rId75" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/MYS.pdf" xr:uid="{88437B25-CE7C-004A-A384-1BE8EDF476CE}"/>
+    <hyperlink ref="A134" r:id="rId76" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/MWI.pdf" xr:uid="{80C41C8D-49D4-D54A-9C5D-763FDA7A7DBB}"/>
+    <hyperlink ref="A133" r:id="rId77" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/MUS.pdf" xr:uid="{76A306E1-5A6B-A547-B2D1-E7800324425E}"/>
+    <hyperlink ref="A132" r:id="rId78" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/MTQ.pdf" xr:uid="{FD1072E4-63D1-C445-8396-40C1EAA6F48F}"/>
+    <hyperlink ref="A131" r:id="rId79" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/MRT.pdf" xr:uid="{4A26E0C6-A4E7-5C45-9153-E4885325E461}"/>
+    <hyperlink ref="A130" r:id="rId80" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/MOZ.pdf" xr:uid="{20100D67-798D-F741-9F72-E2E87CE8C854}"/>
+    <hyperlink ref="A129" r:id="rId81" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/MNG.pdf" xr:uid="{E35F782A-D8C4-7947-9A2E-EED883FD8FCD}"/>
+    <hyperlink ref="A128" r:id="rId82" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/MMR.pdf" xr:uid="{F912903F-952A-B24D-8B33-D0FF1E7BACC6}"/>
+    <hyperlink ref="A127" r:id="rId83" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/MLT.pdf" xr:uid="{AF9C2C76-D2BE-904E-B3BD-602F061E2D0C}"/>
+    <hyperlink ref="A126" r:id="rId84" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/MLI.pdf" xr:uid="{BE4F1D57-E3D1-9B47-B1CD-C0063D89403D}"/>
+    <hyperlink ref="A125" r:id="rId85" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/MKD.pdf" xr:uid="{63EA2F32-3838-2C43-B42C-2987F2AFA598}"/>
+    <hyperlink ref="A124" r:id="rId86" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/MEX.pdf" xr:uid="{6BE10978-991C-624D-8C9A-37F9B2A53266}"/>
+    <hyperlink ref="A123" r:id="rId87" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/MDV.pdf" xr:uid="{DE1C8892-96AC-7A4A-A4E2-B837B4D506AD}"/>
+    <hyperlink ref="A122" r:id="rId88" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/MDG.pdf" xr:uid="{032624EB-6286-224E-A369-F7AB8DFC4F96}"/>
+    <hyperlink ref="A121" r:id="rId89" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/MDA.pdf" xr:uid="{4260080C-154A-2043-AD78-B9DAA2494DF7}"/>
+    <hyperlink ref="A120" r:id="rId90" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/MAR.pdf" xr:uid="{20CF9E76-4268-A04A-A3A1-1E1A01AC7713}"/>
+    <hyperlink ref="A119" r:id="rId91" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/MAC.pdf" xr:uid="{D9A5CB71-91A0-F448-9BB8-CEFFA6DD50D9}"/>
+    <hyperlink ref="A118" r:id="rId92" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/LVA.pdf" xr:uid="{D32DA808-FAAC-C54F-A649-EB39304CFCF0}"/>
+    <hyperlink ref="A117" r:id="rId93" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/LUX.pdf" xr:uid="{9F60703E-8C00-BE45-B659-BE8AE1A687AE}"/>
+    <hyperlink ref="A116" r:id="rId94" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/LTU.pdf" xr:uid="{79158770-83E8-704F-9A80-A570BC2BC4B6}"/>
+    <hyperlink ref="A115" r:id="rId95" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/LSO.pdf" xr:uid="{2ACB4294-4989-EC43-9D00-038593C0A78A}"/>
+    <hyperlink ref="A114" r:id="rId96" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/LKA.pdf" xr:uid="{73E94745-CA81-7643-9BE4-28511CA42D1B}"/>
+    <hyperlink ref="A113" r:id="rId97" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/LCA.pdf" xr:uid="{0C1D7C4F-BE9D-2C4C-AF70-1C826E3201F9}"/>
+    <hyperlink ref="A112" r:id="rId98" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/LBY.pdf" xr:uid="{52312CF2-A727-7748-8FA7-A9B35B97F31E}"/>
+    <hyperlink ref="A111" r:id="rId99" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/LBR.pdf" xr:uid="{BC91250E-B6B1-2849-86EC-1173BD225221}"/>
+    <hyperlink ref="A110" r:id="rId100" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/LBN.pdf" xr:uid="{C61B872B-75CE-E743-AA2E-C7DDD76AF6A5}"/>
+    <hyperlink ref="A109" r:id="rId101" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/LAO.pdf" xr:uid="{5478A834-AD10-4249-8185-544C09FE60FC}"/>
+    <hyperlink ref="A108" r:id="rId102" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/KWT.pdf" xr:uid="{2514C033-5943-F847-B1B5-883957EF2516}"/>
+    <hyperlink ref="A107" r:id="rId103" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/KOR.pdf" xr:uid="{09B8303F-0C00-664B-BB0A-0ECD7B5A9EC5}"/>
+    <hyperlink ref="A106" r:id="rId104" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/KNA.pdf" xr:uid="{957E8658-2CB1-5345-AE02-D723D81B7623}"/>
+    <hyperlink ref="A105" r:id="rId105" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/KIR.pdf" xr:uid="{41B9529D-18CD-0242-814C-C3DD9975171F}"/>
+    <hyperlink ref="A104" r:id="rId106" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/KHM.pdf" xr:uid="{BC087013-A132-4E4C-8DD0-3A4BAC3B2767}"/>
+    <hyperlink ref="A103" r:id="rId107" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/KGZ.pdf" xr:uid="{F6E3849F-4B02-4440-9092-A271330D0993}"/>
+    <hyperlink ref="A102" r:id="rId108" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/KEN.pdf" xr:uid="{89AAB8D4-21A5-8C44-942E-4BE994478B2F}"/>
+    <hyperlink ref="A101" r:id="rId109" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/KAZ.pdf" xr:uid="{49DD6979-A994-9046-B640-156DF1D5F792}"/>
+    <hyperlink ref="A100" r:id="rId110" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/JPN.pdf" xr:uid="{383B5677-6B0D-BF45-96E4-DEF9EAA460F5}"/>
+    <hyperlink ref="A99" r:id="rId111" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/JOR.pdf" xr:uid="{1EC614A1-55A1-7C40-9799-ADFBAB9F0984}"/>
+    <hyperlink ref="A98" r:id="rId112" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/JAM.pdf" xr:uid="{822D9738-65CC-7346-99CF-3276FCB027BB}"/>
+    <hyperlink ref="A97" r:id="rId113" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/ITA_SMR_VAT.pdf" xr:uid="{622679A9-2B75-0A4E-9AF0-192366B24B62}"/>
+    <hyperlink ref="A96" r:id="rId114" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/ISR_PSE.pdf" xr:uid="{98C7A16D-E873-D842-B7F6-D3387D942079}"/>
+    <hyperlink ref="A95" r:id="rId115" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/ISL.pdf" xr:uid="{9A1880DE-5476-E641-8EA5-D4EC128A1F19}"/>
+    <hyperlink ref="A94" r:id="rId116" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/IRQ.pdf" xr:uid="{4F1A3682-C508-9643-8EFD-41541EC9761C}"/>
+    <hyperlink ref="A93" r:id="rId117" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/IRN.pdf" xr:uid="{822CCD67-9950-A04D-8278-11DB881BBECF}"/>
+    <hyperlink ref="A92" r:id="rId118" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/IRL.pdf" xr:uid="{371D09FE-9E02-A448-B8E3-4149D1EF390D}"/>
+    <hyperlink ref="A91" r:id="rId119" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/IND.pdf" xr:uid="{64BAE559-1478-C940-889B-4C356BA14713}"/>
+    <hyperlink ref="A90" r:id="rId120" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/IDN.pdf" xr:uid="{1CDCB0EC-0D1B-8C44-B550-B120C521D54F}"/>
+    <hyperlink ref="A89" r:id="rId121" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/HUN.pdf" xr:uid="{33CBB843-D81D-024C-AC08-D04FA41A88B7}"/>
+    <hyperlink ref="A88" r:id="rId122" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/HTI.pdf" xr:uid="{3339214F-C34E-BA47-BE6E-A1F6EDF69FD6}"/>
+    <hyperlink ref="A87" r:id="rId123" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/HRV.pdf" xr:uid="{6E7AA5B0-4225-8044-969B-24B11F7468A1}"/>
+    <hyperlink ref="A86" r:id="rId124" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/HND.pdf" xr:uid="{19FE4D28-5352-6244-B3F0-53FD42B3257A}"/>
+    <hyperlink ref="A85" r:id="rId125" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/HKG.pdf" xr:uid="{76BC61C1-2742-B943-808F-7E6296449313}"/>
+    <hyperlink ref="A84" r:id="rId126" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/GUY.pdf" xr:uid="{84A521FB-4990-3741-893F-4999C477DB4F}"/>
+    <hyperlink ref="A83" r:id="rId127" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/GUF.pdf" xr:uid="{859729AC-3B40-124B-A0ED-70B2F4CFFA0A}"/>
+    <hyperlink ref="A82" r:id="rId128" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/GTM.pdf" xr:uid="{1BEF9ED3-3CD9-8946-AD26-54016B8BBF34}"/>
+    <hyperlink ref="A81" r:id="rId129" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/GRL.pdf" xr:uid="{927494F5-19BA-1548-8246-3CE5AEE9587F}"/>
+    <hyperlink ref="A80" r:id="rId130" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/GRD.pdf" xr:uid="{E101B01C-5A50-A746-8A0C-E6F8CE59CB23}"/>
+    <hyperlink ref="A79" r:id="rId131" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/GRC.pdf" xr:uid="{ED6FA539-F488-4A4C-8609-0A0AE7792E0B}"/>
+    <hyperlink ref="A78" r:id="rId132" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/GNQ.pdf" xr:uid="{BCD91920-B250-3F43-9B2C-E9FC01B5FB92}"/>
+    <hyperlink ref="A77" r:id="rId133" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/GNB.pdf" xr:uid="{A9A3BA12-91CF-E24F-AAB4-E8D03455920E}"/>
+    <hyperlink ref="A76" r:id="rId134" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/GMB.pdf" xr:uid="{E7AFC1B1-D72A-7D43-99D1-FC76C348AF47}"/>
+    <hyperlink ref="A75" r:id="rId135" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/GLP.pdf" xr:uid="{B7223CEC-E510-174E-A190-583EEFFAA75B}"/>
+    <hyperlink ref="A74" r:id="rId136" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/GIN.pdf" xr:uid="{2482F743-894F-A840-BB52-4D3A10122475}"/>
+    <hyperlink ref="A73" r:id="rId137" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/GIB.pdf" xr:uid="{9F61F73B-4C51-7D44-8EE9-DEF617D38AD3}"/>
+    <hyperlink ref="A72" r:id="rId138" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/GHA.pdf" xr:uid="{993CE6B7-D01C-CD42-89D8-D5E43601EDC2}"/>
+    <hyperlink ref="A71" r:id="rId139" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/GEO.pdf" xr:uid="{A983DFA9-D693-414F-9919-B764C43FCB98}"/>
+    <hyperlink ref="A70" r:id="rId140" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/GBR.pdf" xr:uid="{A7B3DE50-8513-7A4B-A545-278C6502CCAA}"/>
+    <hyperlink ref="A69" r:id="rId141" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/GAB.pdf" xr:uid="{BDE6107F-D0DE-2A42-8235-697A68635C50}"/>
+    <hyperlink ref="A68" r:id="rId142" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/FRO.pdf" xr:uid="{0312E2E6-B041-A049-A56F-74CD65D008C6}"/>
+    <hyperlink ref="A67" r:id="rId143" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/FRA_MCO.pdf" xr:uid="{7CD0AC4D-8D21-D841-9D1F-85A9CA585696}"/>
+    <hyperlink ref="A66" r:id="rId144" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/FLK.pdf" xr:uid="{413A280E-1E12-F744-AAFE-E041B84931BB}"/>
+    <hyperlink ref="A65" r:id="rId145" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/FJI.pdf" xr:uid="{3C3AFF88-5FAB-494E-970B-553291DC3630}"/>
+    <hyperlink ref="A64" r:id="rId146" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/FIN.pdf" xr:uid="{98B176EB-3E03-E34D-B955-31CDF4D47017}"/>
+    <hyperlink ref="A63" r:id="rId147" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/ETH.pdf" xr:uid="{808CDDE0-D46E-1541-89A9-709F0FB3873B}"/>
+    <hyperlink ref="A62" r:id="rId148" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/EST.pdf" xr:uid="{4CBE50BC-CF22-5F44-8040-78B6F7CCD5A5}"/>
+    <hyperlink ref="A61" r:id="rId149" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/ESP_AND.pdf" xr:uid="{5EC2A6C7-D364-434C-8D0E-E8EBFD42DD76}"/>
+    <hyperlink ref="A60" r:id="rId150" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/ESH.pdf" xr:uid="{CEE73DC9-D330-7541-B8EE-567C6F60313D}"/>
+    <hyperlink ref="A59" r:id="rId151" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/ERI.pdf" xr:uid="{3F407C2D-8CFD-0242-80AC-5FE27410C9D2}"/>
+    <hyperlink ref="A58" r:id="rId152" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/EGY.pdf" xr:uid="{27D82721-1D74-EC4D-BAB7-1872F8ED6BCC}"/>
+    <hyperlink ref="A57" r:id="rId153" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/ECU.pdf" xr:uid="{836AA9FC-AC9F-934D-926E-D554D5D33B58}"/>
+    <hyperlink ref="A56" r:id="rId154" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/DZA.pdf" xr:uid="{B40747E8-31C3-D14D-8F34-80630B837C51}"/>
+    <hyperlink ref="A55" r:id="rId155" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/DOM.pdf" xr:uid="{B25F1F35-2861-F243-93D1-E9E090CC1E1B}"/>
+    <hyperlink ref="A54" r:id="rId156" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/DNK.pdf" xr:uid="{E2716241-B7A4-0340-B6D3-F4A60C1567AD}"/>
+    <hyperlink ref="A53" r:id="rId157" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/DMA.pdf" xr:uid="{BB09D79C-20E1-7E4F-9F03-3498D2B7ACA8}"/>
+    <hyperlink ref="A52" r:id="rId158" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/DJI.pdf" xr:uid="{278239DC-5C2A-064F-A8D9-9F4DCEB262F2}"/>
+    <hyperlink ref="A51" r:id="rId159" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/DEU.pdf" xr:uid="{1FDB1FA7-DE7F-EE4D-ADED-311DAA6FDB28}"/>
+    <hyperlink ref="A50" r:id="rId160" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/CZE.pdf" xr:uid="{63BB7BDA-CEF1-6743-9BC8-2110241C207C}"/>
+    <hyperlink ref="A49" r:id="rId161" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/CYP.pdf" xr:uid="{4CF5F74C-1F4C-3743-80A9-B4EBAC8D4F2F}"/>
+    <hyperlink ref="A48" r:id="rId162" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/CYM.pdf" xr:uid="{42EBB710-017B-E843-B6AA-61A859CBFBED}"/>
+    <hyperlink ref="A47" r:id="rId163" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/CUB.pdf" xr:uid="{30DD068F-B7F8-974B-AB89-CCBC06CE4390}"/>
+    <hyperlink ref="A46" r:id="rId164" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/CRI.pdf" xr:uid="{F1977C45-949E-854E-B0D0-ECE9593A7D36}"/>
+    <hyperlink ref="A45" r:id="rId165" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/CPV.pdf" xr:uid="{F0DDC312-1AF8-D34E-8C84-616A05CACB64}"/>
+    <hyperlink ref="A44" r:id="rId166" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/COM.pdf" xr:uid="{585BD632-F4EC-0742-B614-9B68E7F0941B}"/>
+    <hyperlink ref="A43" r:id="rId167" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/COL.pdf" xr:uid="{2912D22F-49E4-0745-9A58-9E7741E0A1C4}"/>
+    <hyperlink ref="A42" r:id="rId168" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/COK.pdf" xr:uid="{B16AEC0D-58AC-4243-8DB4-1D9DD24B490D}"/>
+    <hyperlink ref="A41" r:id="rId169" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/COG.pdf" xr:uid="{7AF284C4-ECF8-B347-A54E-73AD765268CA}"/>
+    <hyperlink ref="A40" r:id="rId170" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/COD.pdf" xr:uid="{E5CF688F-DA17-1847-AE70-8C5651A5F399}"/>
+    <hyperlink ref="A39" r:id="rId171" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/CMR.pdf" xr:uid="{542335A6-E5EA-2E4E-BE3D-DBDB2A21E5D3}"/>
+    <hyperlink ref="A38" r:id="rId172" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/CIV.pdf" xr:uid="{1FD41E54-5534-904D-8D59-DA109ACA7319}"/>
+    <hyperlink ref="A37" r:id="rId173" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/CHN.pdf" xr:uid="{DDA2244B-C7D1-BC4C-A9A6-1FF1E651CF72}"/>
+    <hyperlink ref="A36" r:id="rId174" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/CHL.pdf" xr:uid="{810C3AF7-DAE7-9D4D-BB01-6787E79581BE}"/>
+    <hyperlink ref="A35" r:id="rId175" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/CHE_LIE.pdf" xr:uid="{E20A06B3-E098-3F4E-BBB7-2801927A8DA4}"/>
+    <hyperlink ref="A34" r:id="rId176" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/CAN.pdf" xr:uid="{23692F3B-7056-F24D-952A-D3566BDD4077}"/>
+    <hyperlink ref="A33" r:id="rId177" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/CAF.pdf" xr:uid="{17521A7A-75F9-774A-A364-CB296644D996}"/>
+    <hyperlink ref="A32" r:id="rId178" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/BWA.pdf" xr:uid="{AC8D04A9-2CF9-AC45-A490-89894D218913}"/>
+    <hyperlink ref="A31" r:id="rId179" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/BTN.pdf" xr:uid="{C0DBC480-27C8-EF45-BF2D-4341FB5B0ACC}"/>
+    <hyperlink ref="A30" r:id="rId180" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/BRN.pdf" xr:uid="{17F9996F-4B15-9B45-9B35-DDC318537F93}"/>
+    <hyperlink ref="A29" r:id="rId181" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/BRB.pdf" xr:uid="{ECB9574B-82CB-EB44-B970-BA6C866946EE}"/>
+    <hyperlink ref="A28" r:id="rId182" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/BRA.pdf" xr:uid="{7151C9ED-2A49-4641-86DC-02C2D48A1231}"/>
+    <hyperlink ref="A27" r:id="rId183" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/BOL.pdf" xr:uid="{34BDA502-36C6-C748-BB6B-01FD9F36594C}"/>
+    <hyperlink ref="A26" r:id="rId184" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/BMU.pdf" xr:uid="{0D263B1B-857E-9E49-8987-7B1AEC60E7E0}"/>
+    <hyperlink ref="A25" r:id="rId185" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/BLZ.pdf" xr:uid="{29955D28-1B4D-A14F-8D98-70FD00B63046}"/>
+    <hyperlink ref="A24" r:id="rId186" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/BLR.pdf" xr:uid="{490517CD-EA4F-6143-8D3F-84839B8F5E77}"/>
+    <hyperlink ref="A23" r:id="rId187" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/BIH.pdf" xr:uid="{220BD945-8865-5847-9576-B00E7F4F4376}"/>
+    <hyperlink ref="A22" r:id="rId188" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/BHS.pdf" xr:uid="{DF599048-6716-F847-8180-A23AD87F7278}"/>
+    <hyperlink ref="A21" r:id="rId189" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/BHR.pdf" xr:uid="{58863BAE-B015-7640-A373-710611D287FA}"/>
+    <hyperlink ref="A20" r:id="rId190" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/BGR.pdf" xr:uid="{0F79E507-7BEC-164E-BAB5-3CD9289A5C79}"/>
+    <hyperlink ref="A19" r:id="rId191" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/BGD.pdf" xr:uid="{797FCF8B-431C-9E45-8609-3B0B79303F09}"/>
+    <hyperlink ref="A18" r:id="rId192" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/BFA.pdf" xr:uid="{8356D714-72C1-0C4A-8A60-F8847CF2600B}"/>
+    <hyperlink ref="A17" r:id="rId193" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/BEN.pdf" xr:uid="{01893B5A-94B7-B049-88DA-DBEDF6CD09B6}"/>
+    <hyperlink ref="A16" r:id="rId194" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/BEL.pdf" xr:uid="{6EC54179-B62C-1249-AF9B-93EAB30F019B}"/>
+    <hyperlink ref="A15" r:id="rId195" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/BDI.pdf" xr:uid="{CCB513B5-1BD0-9348-B3DC-43EBD8B81B48}"/>
+    <hyperlink ref="A14" r:id="rId196" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/AZE.pdf" xr:uid="{0FDCC8FC-55E8-C442-B792-444B0F295E1B}"/>
+    <hyperlink ref="A13" r:id="rId197" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/AUT.pdf" xr:uid="{C41E53A1-1F3E-2044-AD48-BA8ED55D71E5}"/>
+    <hyperlink ref="A12" r:id="rId198" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/AUS.pdf" xr:uid="{99472E1F-351F-3245-A0E4-4C6672824BF8}"/>
+    <hyperlink ref="A11" r:id="rId199" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/ATG.pdf" xr:uid="{721FC577-1EA8-F545-A0D1-304E09136BD8}"/>
+    <hyperlink ref="A10" r:id="rId200" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/ARM.pdf" xr:uid="{00F2D8DE-5EA1-504D-8B25-EEBD9BF2D37A}"/>
+    <hyperlink ref="A9" r:id="rId201" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/ARG.pdf" xr:uid="{B9D73925-402B-BF46-8387-1903360A445F}"/>
+    <hyperlink ref="A8" r:id="rId202" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/ARE.pdf" xr:uid="{6899A921-577C-FA48-ACA5-1F41E7BC67DC}"/>
+    <hyperlink ref="A7" r:id="rId203" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/ANT.pdf" xr:uid="{6289F94F-995E-534F-8E16-0D1E8D1B4BF6}"/>
+    <hyperlink ref="A6" r:id="rId204" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/ALB.pdf" xr:uid="{CC3E984A-8FC5-5540-B3B4-432F88651E2D}"/>
+    <hyperlink ref="A5" r:id="rId205" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/AIA.pdf" xr:uid="{2D56B150-CCD6-9B43-9356-61A4F078BDF8}"/>
+    <hyperlink ref="A4" r:id="rId206" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/AGO.pdf" xr:uid="{2EFA71A5-C427-1D43-825A-2471DB9877CA}"/>
+    <hyperlink ref="A3" r:id="rId207" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/AFG.pdf" xr:uid="{A451416C-0A45-D941-AE45-261C2BA68E8E}"/>
+    <hyperlink ref="A2" r:id="rId208" display="https://edgar.jrc.ec.europa.eu/booklet2017/countries/ABW.pdf" xr:uid="{795D99EA-2028-F443-8558-02CA45E5CB73}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId209"/>
+</worksheet>
 </file>